--- a/tests/regression_data/performance_analysis_kacker_okapuu.xlsx
+++ b/tests/regression_data/performance_analysis_kacker_okapuu.xlsx
@@ -688,40 +688,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.023341586454538</v>
+        <v>2.023341582785602</v>
       </c>
       <c r="C2" t="n">
-        <v>2.299999999876152</v>
+        <v>2.29999999995008</v>
       </c>
       <c r="D2" t="n">
-        <v>2.699358780735272</v>
+        <v>2.69935879134064</v>
       </c>
       <c r="E2" t="n">
-        <v>89.5431986977092</v>
+        <v>89.54319873366498</v>
       </c>
       <c r="F2" t="n">
-        <v>76.81765917728399</v>
+        <v>76.81765902326518</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1421162043069919</v>
+        <v>0.1421162063715225</v>
       </c>
       <c r="H2" t="n">
-        <v>-75.95977538159097</v>
+        <v>-75.9597752296367</v>
       </c>
       <c r="I2" t="n">
-        <v>130301.9350550178</v>
+        <v>130301.9353056999</v>
       </c>
       <c r="J2" t="n">
-        <v>80.08723728028141</v>
+        <v>80.08723743435765</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-23.87211984574759</v>
+        <v>-23.87212029117861</v>
       </c>
       <c r="M2" t="n">
-        <v>133.6445921081563</v>
+        <v>133.6445930788878</v>
       </c>
       <c r="N2" t="n">
         <v>354.5108977203336</v>
@@ -736,13 +736,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R2" t="n">
-        <v>373512.991224814</v>
+        <v>373512.9913215978</v>
       </c>
       <c r="S2" t="n">
         <v>358945.442787251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7106315389926832</v>
+        <v>0.7106315403886645</v>
       </c>
       <c r="U2" t="n">
         <v>0.375758900097585</v>
@@ -759,40 +759,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.078552333348691</v>
+        <v>2.078552334510469</v>
       </c>
       <c r="C3" t="n">
-        <v>2.399999999929167</v>
+        <v>2.399999999897346</v>
       </c>
       <c r="D3" t="n">
-        <v>2.701669619738242</v>
+        <v>2.701669617770385</v>
       </c>
       <c r="E3" t="n">
-        <v>89.52557292268159</v>
+        <v>89.52557291089019</v>
       </c>
       <c r="F3" t="n">
-        <v>75.98406126727915</v>
+        <v>75.98406130880338</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1512585869413817</v>
+        <v>0.1512585863657688</v>
       </c>
       <c r="H3" t="n">
-        <v>-75.13531985422053</v>
+        <v>-75.13531989516915</v>
       </c>
       <c r="I3" t="n">
-        <v>134798.6310700071</v>
+        <v>134798.6310454873</v>
       </c>
       <c r="J3" t="n">
-        <v>82.85103323294845</v>
+        <v>82.85103321787786</v>
       </c>
       <c r="K3" t="n">
         <v>1627</v>
       </c>
       <c r="L3" t="n">
-        <v>-26.41202593200411</v>
+        <v>-26.41202579305824</v>
       </c>
       <c r="M3" t="n">
-        <v>140.9419861881458</v>
+        <v>140.9419859199692</v>
       </c>
       <c r="N3" t="n">
         <v>362.3934737152361</v>
@@ -807,13 +807,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R3" t="n">
-        <v>371889.8658593048</v>
+        <v>371889.8658320382</v>
       </c>
       <c r="S3" t="n">
         <v>356119.9161927916</v>
       </c>
       <c r="T3" t="n">
-        <v>0.6983877186599756</v>
+        <v>0.6983877184056279</v>
       </c>
       <c r="U3" t="n">
         <v>0.3675856069766728</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>79.35928853941411</v>
+        <v>79.35928887173327</v>
       </c>
       <c r="D2" t="n">
-        <v>79.35928853941411</v>
+        <v>79.35928887173327</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>79.35928853941411</v>
+        <v>79.35928887173327</v>
       </c>
       <c r="H2" t="n">
-        <v>79.35928853941411</v>
+        <v>79.35928887173327</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3103,97 +3103,97 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>292.4602704227005</v>
+        <v>292.4602703964032</v>
       </c>
       <c r="L2" t="n">
-        <v>132943.6968524513</v>
+        <v>132943.6968106671</v>
       </c>
       <c r="M2" t="n">
-        <v>1.584391130688582</v>
+        <v>1.584391130333364</v>
       </c>
       <c r="N2" t="n">
-        <v>334727.1003577599</v>
+        <v>334727.1003389477</v>
       </c>
       <c r="O2" t="n">
-        <v>418635.4827498486</v>
+        <v>418635.4827234761</v>
       </c>
       <c r="P2" t="n">
         <v>3782.917347718237</v>
       </c>
       <c r="Q2" t="n">
-        <v>-687717.547750552</v>
+        <v>-687717.5476774441</v>
       </c>
       <c r="R2" t="n">
-        <v>717.7177923753774</v>
+        <v>717.7177923741856</v>
       </c>
       <c r="S2" t="n">
-        <v>1006.653328249192</v>
+        <v>1006.653328247809</v>
       </c>
       <c r="T2" t="n">
-        <v>1.402575411872606</v>
+        <v>1.402575411873008</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9994987180514315</v>
+        <v>0.9994987180512477</v>
       </c>
       <c r="V2" t="n">
-        <v>342.9714983435737</v>
+        <v>342.9714983281399</v>
       </c>
       <c r="W2" t="n">
-        <v>186371.0551900992</v>
+        <v>186371.0551315416</v>
       </c>
       <c r="X2" t="n">
-        <v>5.365640061328172e-06</v>
+        <v>5.365640063014052e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>132877.7430521697</v>
+        <v>132877.7430103815</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.525714818977514e-06</v>
+        <v>7.525714821344249e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003432196313298014</v>
+        <v>0.003432196313606131</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.817668480728964e-05</v>
+        <v>1.817668480600313e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.02583243129118085</v>
+        <v>0.02583243128919916</v>
       </c>
       <c r="AD2" t="n">
-        <v>132943.6968524513</v>
+        <v>132943.6968106671</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.584391130688582</v>
+        <v>1.584391130333364</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.584391130688582</v>
+        <v>1.584391130333364</v>
       </c>
       <c r="AG2" t="n">
-        <v>334727.1003577599</v>
+        <v>334727.1003389477</v>
       </c>
       <c r="AH2" t="n">
-        <v>418635.4827498486</v>
+        <v>418635.4827234761</v>
       </c>
       <c r="AI2" t="n">
         <v>3782.917347718237</v>
       </c>
       <c r="AJ2" t="n">
-        <v>717.7177923753774</v>
+        <v>717.7177923741856</v>
       </c>
       <c r="AK2" t="n">
-        <v>1006.653328249192</v>
+        <v>1006.653328247809</v>
       </c>
       <c r="AL2" t="n">
-        <v>342.9714983435737</v>
+        <v>342.9714983281399</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9994987180514315</v>
+        <v>0.9994987180512477</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.817668480728964e-05</v>
+        <v>1.817668480600313e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.02583243129118085</v>
+        <v>0.02583243128919916</v>
       </c>
       <c r="AP2" t="n">
         <v>295.6000000000945</v>
@@ -3382,16 +3382,16 @@
         <v>0.0260686341970676</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.2313874153470195</v>
+        <v>0.231387416326373</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.2313874153470195</v>
+        <v>0.231387416326373</v>
       </c>
       <c r="DB2" t="n">
-        <v>180960.2683177131</v>
+        <v>180960.2690477261</v>
       </c>
       <c r="DC2" t="n">
-        <v>2.699358780635113</v>
+        <v>2.699358791333558</v>
       </c>
       <c r="DD2" t="n">
         <v>421784.4310884894</v>
@@ -3400,325 +3400,325 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>261.2176182839102</v>
+        <v>261.2176164878198</v>
       </c>
       <c r="DG2" t="n">
-        <v>107.8099287443058</v>
+        <v>107.8099286471342</v>
       </c>
       <c r="DH2" t="n">
-        <v>237.9320561968612</v>
+        <v>237.9320542690234</v>
       </c>
       <c r="DI2" t="n">
-        <v>65.62413758290276</v>
+        <v>65.62413742779584</v>
       </c>
       <c r="DJ2" t="n">
-        <v>261.2176182839102</v>
+        <v>261.2176164878197</v>
       </c>
       <c r="DK2" t="n">
-        <v>107.8099287443058</v>
+        <v>107.8099286471342</v>
       </c>
       <c r="DL2" t="n">
-        <v>237.9320561968612</v>
+        <v>237.9320542690234</v>
       </c>
       <c r="DM2" t="n">
-        <v>65.62413758290276</v>
+        <v>65.62413742779583</v>
       </c>
       <c r="DN2" t="n">
-        <v>261.5538390577013</v>
+        <v>261.5538395259431</v>
       </c>
       <c r="DO2" t="n">
-        <v>87504.69004286504</v>
+        <v>87504.69062621042</v>
       </c>
       <c r="DP2" t="n">
-        <v>1.166276189629997</v>
+        <v>1.166276195314876</v>
       </c>
       <c r="DQ2" t="n">
-        <v>312637.9771553905</v>
+        <v>312637.9774898972</v>
       </c>
       <c r="DR2" t="n">
-        <v>387667.1090376301</v>
+        <v>387667.1095065938</v>
       </c>
       <c r="DS2" t="n">
-        <v>3790.988615770932</v>
+        <v>3790.988615651592</v>
       </c>
       <c r="DT2" t="n">
-        <v>-603880.5172412979</v>
+        <v>-603880.5185162199</v>
       </c>
       <c r="DU2" t="n">
-        <v>716.5889934606734</v>
+        <v>716.5889934738265</v>
       </c>
       <c r="DV2" t="n">
-        <v>1005.256678792694</v>
+        <v>1005.256678809744</v>
       </c>
       <c r="DW2" t="n">
-        <v>1.402835778900173</v>
+        <v>1.402835778898217</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.999338438727397</v>
+        <v>0.9993384387292267</v>
       </c>
       <c r="DY2" t="n">
-        <v>324.3211383432417</v>
+        <v>324.3211386339191</v>
       </c>
       <c r="DZ2" t="n">
-        <v>122673.8288906085</v>
+        <v>122673.8297084643</v>
       </c>
       <c r="EA2" t="n">
-        <v>8.151697954188145e-06</v>
+        <v>8.151697899841484e-06</v>
       </c>
       <c r="EB2" t="n">
-        <v>87447.03459644088</v>
+        <v>87447.0351795646</v>
       </c>
       <c r="EC2" t="n">
-        <v>1.143549354892247e-05</v>
+        <v>1.143549347266709e-05</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.003836601539431914</v>
+        <v>0.003836601532582324</v>
       </c>
       <c r="EE2" t="n">
-        <v>1.663030168032024e-05</v>
+        <v>1.663030170428224e-05</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.02346192963285041</v>
+        <v>0.02346192966939898</v>
       </c>
       <c r="EG2" t="n">
-        <v>87504.69004286504</v>
+        <v>87504.69062621042</v>
       </c>
       <c r="EH2" t="n">
-        <v>1.166276189629997</v>
+        <v>1.166276195314876</v>
       </c>
       <c r="EI2" t="n">
-        <v>1.166276189629997</v>
+        <v>1.166276195314876</v>
       </c>
       <c r="EJ2" t="n">
-        <v>312637.9771553905</v>
+        <v>312637.9774898972</v>
       </c>
       <c r="EK2" t="n">
-        <v>387667.1090376301</v>
+        <v>387667.1095065938</v>
       </c>
       <c r="EL2" t="n">
-        <v>3790.988615770932</v>
+        <v>3790.988615651592</v>
       </c>
       <c r="EM2" t="n">
-        <v>716.5889934606734</v>
+        <v>716.5889934738265</v>
       </c>
       <c r="EN2" t="n">
-        <v>1005.256678792694</v>
+        <v>1005.256678809744</v>
       </c>
       <c r="EO2" t="n">
-        <v>324.3211383432417</v>
+        <v>324.3211386339191</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.999338438727397</v>
+        <v>0.9993384387292267</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1.663030168032024e-05</v>
+        <v>1.663030170428224e-05</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.02346192963285041</v>
+        <v>0.02346192966939898</v>
       </c>
       <c r="ES2" t="n">
-        <v>295.591124236051</v>
+        <v>295.5911242361727</v>
       </c>
       <c r="ET2" t="n">
-        <v>134171.9684733739</v>
+        <v>134171.9685258411</v>
       </c>
       <c r="EU2" t="n">
-        <v>1.582036722297146</v>
+        <v>1.582036722915424</v>
       </c>
       <c r="EV2" t="n">
-        <v>336974.7888202649</v>
+        <v>336974.7888202452</v>
       </c>
       <c r="EW2" t="n">
-        <v>421784.4310885895</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="EX2" t="n">
-        <v>3790.988615776158</v>
+        <v>3790.988615663961</v>
       </c>
       <c r="EY2" t="n">
-        <v>-698798.1558147558</v>
+        <v>-698798.1557820525</v>
       </c>
       <c r="EZ2" t="n">
-        <v>717.8532654823276</v>
+        <v>717.8532654824643</v>
       </c>
       <c r="FA2" t="n">
-        <v>1006.758731674179</v>
+        <v>1006.75873167504</v>
       </c>
       <c r="FB2" t="n">
-        <v>1.402457549590911</v>
+        <v>1.402457549591843</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.999534092933642</v>
+        <v>0.9995340929334634</v>
       </c>
       <c r="FD2" t="n">
-        <v>344.8001192151697</v>
+        <v>344.8001192152944</v>
       </c>
       <c r="FE2" t="n">
-        <v>188083.7931457068</v>
+        <v>188083.7932193482</v>
       </c>
       <c r="FF2" t="n">
-        <v>5.316779203965273e-06</v>
+        <v>5.316779201883569e-06</v>
       </c>
       <c r="FG2" t="n">
-        <v>134110.1505714521</v>
+        <v>134110.1506238717</v>
       </c>
       <c r="FH2" t="n">
-        <v>7.456557134109047e-06</v>
+        <v>7.456557131194505e-06</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.003395546168357735</v>
+        <v>0.003395546168361196</v>
       </c>
       <c r="FJ2" t="n">
-        <v>1.832896897521366e-05</v>
+        <v>1.832896897522712e-05</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.02606674484504268</v>
+        <v>0.02606674484506858</v>
       </c>
       <c r="FL2" t="n">
-        <v>134171.9684733739</v>
+        <v>134171.9685258411</v>
       </c>
       <c r="FM2" t="n">
-        <v>1.582036722297146</v>
+        <v>1.582036722915424</v>
       </c>
       <c r="FN2" t="n">
-        <v>1.582036722297146</v>
+        <v>1.582036722915424</v>
       </c>
       <c r="FO2" t="n">
-        <v>336974.7888202649</v>
+        <v>336974.7888202452</v>
       </c>
       <c r="FP2" t="n">
-        <v>421784.4310885895</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="FQ2" t="n">
-        <v>3790.988615776158</v>
+        <v>3790.988615663961</v>
       </c>
       <c r="FR2" t="n">
-        <v>717.8532654823276</v>
+        <v>717.8532654824643</v>
       </c>
       <c r="FS2" t="n">
-        <v>1006.758731674179</v>
+        <v>1006.75873167504</v>
       </c>
       <c r="FT2" t="n">
-        <v>344.8001192151697</v>
+        <v>344.8001192152944</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.999534092933642</v>
+        <v>0.9995340929334634</v>
       </c>
       <c r="FV2" t="n">
-        <v>1.832896897521366e-05</v>
+        <v>1.832896897522712e-05</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.02606674484504268</v>
+        <v>0.02606674484506858</v>
       </c>
       <c r="FX2" t="n">
-        <v>295.591124236051</v>
+        <v>295.5911242361727</v>
       </c>
       <c r="FY2" t="n">
-        <v>134171.9684733739</v>
+        <v>134171.9685258411</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1.582036722297146</v>
+        <v>1.582036722915424</v>
       </c>
       <c r="GA2" t="n">
-        <v>336974.7888202649</v>
+        <v>336974.7888202452</v>
       </c>
       <c r="GB2" t="n">
-        <v>421784.4310885895</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="GC2" t="n">
-        <v>3790.988615776158</v>
+        <v>3790.988615663961</v>
       </c>
       <c r="GD2" t="n">
-        <v>-698798.1558147558</v>
+        <v>-698798.1557820525</v>
       </c>
       <c r="GE2" t="n">
-        <v>717.8532654823276</v>
+        <v>717.8532654824643</v>
       </c>
       <c r="GF2" t="n">
-        <v>1006.758731674179</v>
+        <v>1006.75873167504</v>
       </c>
       <c r="GG2" t="n">
-        <v>1.402457549590911</v>
+        <v>1.402457549591843</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.999534092933642</v>
+        <v>0.9995340929334634</v>
       </c>
       <c r="GI2" t="n">
-        <v>344.8001192151697</v>
+        <v>344.8001192152944</v>
       </c>
       <c r="GJ2" t="n">
-        <v>188083.7931457068</v>
+        <v>188083.7932193482</v>
       </c>
       <c r="GK2" t="n">
-        <v>5.316779203965273e-06</v>
+        <v>5.316779201883569e-06</v>
       </c>
       <c r="GL2" t="n">
-        <v>134110.1505714521</v>
+        <v>134110.1506238717</v>
       </c>
       <c r="GM2" t="n">
-        <v>7.456557134109047e-06</v>
+        <v>7.456557131194505e-06</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.003395546168357735</v>
+        <v>0.003395546168361196</v>
       </c>
       <c r="GO2" t="n">
-        <v>1.832896897521366e-05</v>
+        <v>1.832896897522712e-05</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.02606674484504268</v>
+        <v>0.02606674484506858</v>
       </c>
       <c r="GQ2" t="n">
-        <v>134171.9684733739</v>
+        <v>134171.9685258411</v>
       </c>
       <c r="GR2" t="n">
-        <v>1.582036722297146</v>
+        <v>1.582036722915424</v>
       </c>
       <c r="GS2" t="n">
-        <v>1.582036722297146</v>
+        <v>1.582036722915424</v>
       </c>
       <c r="GT2" t="n">
-        <v>336974.7888202649</v>
+        <v>336974.7888202452</v>
       </c>
       <c r="GU2" t="n">
-        <v>421784.4310885895</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="GV2" t="n">
-        <v>3790.988615776158</v>
+        <v>3790.988615663961</v>
       </c>
       <c r="GW2" t="n">
-        <v>717.8532654823276</v>
+        <v>717.8532654824643</v>
       </c>
       <c r="GX2" t="n">
-        <v>1006.758731674179</v>
+        <v>1006.75873167504</v>
       </c>
       <c r="GY2" t="n">
-        <v>344.8001192151697</v>
+        <v>344.8001192152944</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.999534092933642</v>
+        <v>0.9995340929334634</v>
       </c>
       <c r="HA2" t="n">
-        <v>1.832896897521366e-05</v>
+        <v>1.832896897522712e-05</v>
       </c>
       <c r="HB2" t="n">
-        <v>0.02606674484504268</v>
+        <v>0.02606674484506858</v>
       </c>
       <c r="HC2" t="n">
-        <v>0.8054289017925604</v>
+        <v>0.8054288955326835</v>
       </c>
       <c r="HD2" t="n">
-        <v>0.8054289017925604</v>
+        <v>0.8054288955326834</v>
       </c>
       <c r="HE2" t="n">
-        <v>479227.2297152386</v>
+        <v>479227.2280655858</v>
       </c>
       <c r="HF2" t="n">
-        <v>2.699358780647707</v>
+        <v>2.699358791372426</v>
       </c>
       <c r="HG2" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.01760661584873649</v>
+        <v>0.01760661569108142</v>
       </c>
       <c r="HI2" t="n">
         <v>0</v>
@@ -3727,16 +3727,16 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="HK2" t="n">
-        <v>0.04914148723581423</v>
+        <v>0.04914148720070381</v>
       </c>
       <c r="HL2" t="n">
         <v>0</v>
       </c>
       <c r="HM2" t="n">
-        <v>0.08202817162379386</v>
+        <v>0.08202817143102836</v>
       </c>
       <c r="HN2" t="n">
-        <v>3.222699884730673e-13</v>
+        <v>1.942584981762252e-12</v>
       </c>
       <c r="HO2" t="n">
         <v>0</v>
@@ -3745,664 +3745,664 @@
         <v>165.3032</v>
       </c>
       <c r="HQ2" t="n">
-        <v>261.2176182839102</v>
+        <v>261.2176164878198</v>
       </c>
       <c r="HR2" t="n">
-        <v>107.8099287443058</v>
+        <v>107.8099286471342</v>
       </c>
       <c r="HS2" t="n">
-        <v>237.9320561968612</v>
+        <v>237.9320542690235</v>
       </c>
       <c r="HT2" t="n">
-        <v>65.62413758290276</v>
+        <v>65.62413742779584</v>
       </c>
       <c r="HU2" t="n">
-        <v>129.9920439423761</v>
+        <v>129.992042784669</v>
       </c>
       <c r="HV2" t="n">
-        <v>107.8099287443058</v>
+        <v>107.8099286471342</v>
       </c>
       <c r="HW2" t="n">
-        <v>72.62885619686122</v>
+        <v>72.62885426902346</v>
       </c>
       <c r="HX2" t="n">
-        <v>33.96716466927388</v>
+        <v>33.96716398848079</v>
       </c>
       <c r="HY2" t="n">
-        <v>261.5538390576013</v>
+        <v>261.5538395260493</v>
       </c>
       <c r="HZ2" t="n">
-        <v>87504.69004274788</v>
+        <v>87504.69062616238</v>
       </c>
       <c r="IA2" t="n">
-        <v>1.166276189628882</v>
+        <v>1.16627619531376</v>
       </c>
       <c r="IB2" t="n">
-        <v>312637.9771553189</v>
+        <v>312637.9774899736</v>
       </c>
       <c r="IC2" t="n">
-        <v>387667.1090375299</v>
+        <v>387667.1095067008</v>
       </c>
       <c r="ID2" t="n">
-        <v>3790.988615770934</v>
+        <v>3790.988615652157</v>
       </c>
       <c r="IE2" t="n">
-        <v>-603880.5172410194</v>
+        <v>-603880.5185166632</v>
       </c>
       <c r="IF2" t="n">
-        <v>716.5889934606706</v>
+        <v>716.588993473829</v>
       </c>
       <c r="IG2" t="n">
-        <v>1005.256678792691</v>
+        <v>1005.256678809744</v>
       </c>
       <c r="IH2" t="n">
-        <v>1.402835778900173</v>
+        <v>1.402835778898211</v>
       </c>
       <c r="II2" t="n">
-        <v>0.9993384387273966</v>
+        <v>0.9993384387292285</v>
       </c>
       <c r="IJ2" t="n">
-        <v>324.3211383431796</v>
+        <v>324.3211386339849</v>
       </c>
       <c r="IK2" t="n">
-        <v>122673.8288904443</v>
+        <v>122673.8297083967</v>
       </c>
       <c r="IL2" t="n">
-        <v>8.15169795419906e-06</v>
+        <v>8.151697899845972e-06</v>
       </c>
       <c r="IM2" t="n">
-        <v>87447.03459632378</v>
+        <v>87447.03517951677</v>
       </c>
       <c r="IN2" t="n">
-        <v>1.143549354893779e-05</v>
+        <v>1.143549347267334e-05</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.003836601539433378</v>
+        <v>0.003836601532580744</v>
       </c>
       <c r="IP2" t="n">
-        <v>1.663030168031512e-05</v>
+        <v>1.663030170428764e-05</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.02346192963284261</v>
+        <v>0.02346192966940721</v>
       </c>
       <c r="IR2" t="n">
-        <v>87504.69004274788</v>
+        <v>87504.69062616238</v>
       </c>
       <c r="IS2" t="n">
-        <v>1.166276189628882</v>
+        <v>1.16627619531376</v>
       </c>
       <c r="IT2" t="n">
-        <v>1.166276189628882</v>
+        <v>1.16627619531376</v>
       </c>
       <c r="IU2" t="n">
-        <v>312637.9771553189</v>
+        <v>312637.9774899736</v>
       </c>
       <c r="IV2" t="n">
-        <v>387667.1090375299</v>
+        <v>387667.1095067008</v>
       </c>
       <c r="IW2" t="n">
-        <v>3790.988615770934</v>
+        <v>3790.988615652157</v>
       </c>
       <c r="IX2" t="n">
-        <v>716.5889934606706</v>
+        <v>716.588993473829</v>
       </c>
       <c r="IY2" t="n">
-        <v>1005.256678792691</v>
+        <v>1005.256678809744</v>
       </c>
       <c r="IZ2" t="n">
-        <v>324.3211383431796</v>
+        <v>324.3211386339849</v>
       </c>
       <c r="JA2" t="n">
-        <v>0.9993384387273966</v>
+        <v>0.9993384387292285</v>
       </c>
       <c r="JB2" t="n">
-        <v>1.663030168031512e-05</v>
+        <v>1.663030170428764e-05</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.02346192963284261</v>
+        <v>0.02346192966940721</v>
       </c>
       <c r="JD2" t="n">
-        <v>295.5911242361507</v>
+        <v>295.5911242361797</v>
       </c>
       <c r="JE2" t="n">
-        <v>134171.968473532</v>
+        <v>134171.9685289174</v>
       </c>
       <c r="JF2" t="n">
-        <v>1.582036722298475</v>
+        <v>1.582036722951676</v>
       </c>
       <c r="JG2" t="n">
-        <v>336974.7888203364</v>
+        <v>336974.7888202441</v>
       </c>
       <c r="JH2" t="n">
-        <v>421784.4310886897</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="JI2" t="n">
-        <v>3790.988615776158</v>
+        <v>3790.988615657383</v>
       </c>
       <c r="JJ2" t="n">
-        <v>-698798.1558150337</v>
+        <v>-698798.1557801347</v>
       </c>
       <c r="JK2" t="n">
-        <v>717.8532654823323</v>
+        <v>717.8532654824722</v>
       </c>
       <c r="JL2" t="n">
-        <v>1006.758731674184</v>
+        <v>1006.75873167509</v>
       </c>
       <c r="JM2" t="n">
-        <v>1.402457549590909</v>
+        <v>1.402457549591898</v>
       </c>
       <c r="JN2" t="n">
-        <v>0.9995340929336428</v>
+        <v>0.999534092933453</v>
       </c>
       <c r="JO2" t="n">
-        <v>344.8001192152279</v>
+        <v>344.8001192153018</v>
       </c>
       <c r="JP2" t="n">
-        <v>188083.7931459283</v>
+        <v>188083.793223666</v>
       </c>
       <c r="JQ2" t="n">
-        <v>5.316779203959011e-06</v>
+        <v>5.31677920176151e-06</v>
       </c>
       <c r="JR2" t="n">
-        <v>134110.1505716103</v>
+        <v>134110.1506269453</v>
       </c>
       <c r="JS2" t="n">
-        <v>7.456557134100257e-06</v>
+        <v>7.456557131023617e-06</v>
       </c>
       <c r="JT2" t="n">
-        <v>0.003395546168356591</v>
+        <v>0.0033955461683614</v>
       </c>
       <c r="JU2" t="n">
-        <v>1.832896897521851e-05</v>
+        <v>1.832896897522791e-05</v>
       </c>
       <c r="JV2" t="n">
-        <v>0.02606674484505017</v>
+        <v>0.02606674484507009</v>
       </c>
       <c r="JW2" t="n">
-        <v>134171.968473532</v>
+        <v>134171.9685289174</v>
       </c>
       <c r="JX2" t="n">
-        <v>1.582036722298475</v>
+        <v>1.582036722951676</v>
       </c>
       <c r="JY2" t="n">
-        <v>1.582036722298475</v>
+        <v>1.582036722951676</v>
       </c>
       <c r="JZ2" t="n">
-        <v>336974.7888203364</v>
+        <v>336974.7888202441</v>
       </c>
       <c r="KA2" t="n">
-        <v>421784.4310886897</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="KB2" t="n">
-        <v>3790.988615776158</v>
+        <v>3790.988615657383</v>
       </c>
       <c r="KC2" t="n">
-        <v>717.8532654823323</v>
+        <v>717.8532654824722</v>
       </c>
       <c r="KD2" t="n">
-        <v>1006.758731674184</v>
+        <v>1006.75873167509</v>
       </c>
       <c r="KE2" t="n">
-        <v>344.8001192152279</v>
+        <v>344.8001192153018</v>
       </c>
       <c r="KF2" t="n">
-        <v>0.9995340929336428</v>
+        <v>0.999534092933453</v>
       </c>
       <c r="KG2" t="n">
-        <v>1.832896897521851e-05</v>
+        <v>1.832896897522791e-05</v>
       </c>
       <c r="KH2" t="n">
-        <v>0.02606674484505017</v>
+        <v>0.02606674484507009</v>
       </c>
       <c r="KI2" t="n">
-        <v>269.98683268973</v>
+        <v>269.9868330079777</v>
       </c>
       <c r="KJ2" t="n">
-        <v>97760.63656156548</v>
+        <v>97760.63700441031</v>
       </c>
       <c r="KK2" t="n">
-        <v>1.262219944574281</v>
+        <v>1.262219948802423</v>
       </c>
       <c r="KL2" t="n">
-        <v>318664.726479304</v>
+        <v>318664.7267066801</v>
       </c>
       <c r="KM2" t="n">
-        <v>396116.0747817886</v>
+        <v>396116.0751005667</v>
       </c>
       <c r="KN2" t="n">
-        <v>3790.988615770933</v>
+        <v>3790.988615652157</v>
       </c>
       <c r="KO2" t="n">
-        <v>-627400.9343530295</v>
+        <v>-627400.9352086567</v>
       </c>
       <c r="KP2" t="n">
-        <v>716.8417443646133</v>
+        <v>716.8417443749813</v>
       </c>
       <c r="KQ2" t="n">
-        <v>1005.567732149536</v>
+        <v>1005.567732162806</v>
       </c>
       <c r="KR2" t="n">
-        <v>1.402775075607296</v>
+        <v>1.402775075605518</v>
       </c>
       <c r="KS2" t="n">
-        <v>0.9993788827692216</v>
+        <v>0.9993788827705907</v>
       </c>
       <c r="KT2" t="n">
-        <v>329.5143190304618</v>
+        <v>329.5143192249162</v>
       </c>
       <c r="KU2" t="n">
-        <v>137051.4458079005</v>
+        <v>137051.4464287456</v>
       </c>
       <c r="KV2" t="n">
-        <v>7.296530103021753e-06</v>
+        <v>7.29653006996836e-06</v>
       </c>
       <c r="KW2" t="n">
-        <v>97700.22877585524</v>
+        <v>97700.2292185626</v>
       </c>
       <c r="KX2" t="n">
-        <v>1.023539056693725e-05</v>
+        <v>1.02353905205578e-05</v>
       </c>
       <c r="KY2" t="n">
-        <v>0.00371698984585576</v>
+        <v>0.003716989841487889</v>
       </c>
       <c r="KZ2" t="n">
-        <v>1.705904111507696e-05</v>
+        <v>1.705904113116175e-05</v>
       </c>
       <c r="LA2" t="n">
-        <v>0.02411669244682139</v>
+        <v>0.02411669247142472</v>
       </c>
       <c r="LB2" t="n">
-        <v>97760.63656156548</v>
+        <v>97760.63700441031</v>
       </c>
       <c r="LC2" t="n">
-        <v>1.262219944574281</v>
+        <v>1.262219948802423</v>
       </c>
       <c r="LD2" t="n">
-        <v>1.262219944574281</v>
+        <v>1.262219948802423</v>
       </c>
       <c r="LE2" t="n">
-        <v>318664.726479304</v>
+        <v>318664.7267066801</v>
       </c>
       <c r="LF2" t="n">
-        <v>396116.0747817886</v>
+        <v>396116.0751005667</v>
       </c>
       <c r="LG2" t="n">
-        <v>3790.988615770933</v>
+        <v>3790.988615652157</v>
       </c>
       <c r="LH2" t="n">
-        <v>716.8417443646133</v>
+        <v>716.8417443749813</v>
       </c>
       <c r="LI2" t="n">
-        <v>1005.567732149536</v>
+        <v>1005.567732162806</v>
       </c>
       <c r="LJ2" t="n">
-        <v>329.5143190304618</v>
+        <v>329.5143192249162</v>
       </c>
       <c r="LK2" t="n">
-        <v>0.9993788827692216</v>
+        <v>0.9993788827705907</v>
       </c>
       <c r="LL2" t="n">
-        <v>1.705904111507696e-05</v>
+        <v>1.705904113116175e-05</v>
       </c>
       <c r="LM2" t="n">
-        <v>0.02411669244682139</v>
+        <v>0.02411669247142472</v>
       </c>
       <c r="LN2" t="n">
-        <v>0.8054289017927146</v>
+        <v>0.8054288955325201</v>
       </c>
       <c r="LO2" t="n">
-        <v>0.4008127395163041</v>
+        <v>0.40081273558728</v>
       </c>
       <c r="LP2" t="n">
-        <v>237570.4747550561</v>
+        <v>237570.4734548098</v>
       </c>
       <c r="LQ2" t="n">
-        <v>2.699358780645126</v>
+        <v>2.699358791369844</v>
       </c>
       <c r="LR2" t="n">
-        <v>382453.5008166686</v>
+        <v>382453.5011353465</v>
       </c>
       <c r="LS2" t="n">
         <v>165.3032</v>
       </c>
       <c r="LT2" t="n">
-        <v>133.6445921081563</v>
+        <v>133.6445930788878</v>
       </c>
       <c r="LU2" t="n">
-        <v>122.2114294387167</v>
+        <v>122.2114299059294</v>
       </c>
       <c r="LV2" t="n">
-        <v>-54.08552037561478</v>
+        <v>-54.08552171856732</v>
       </c>
       <c r="LW2" t="n">
-        <v>-23.87211984574759</v>
+        <v>-23.87212029117861</v>
       </c>
       <c r="LX2" t="n">
-        <v>251.1315275179604</v>
+        <v>251.1315289185308</v>
       </c>
       <c r="LY2" t="n">
-        <v>122.2114294387167</v>
+        <v>122.2114299059294</v>
       </c>
       <c r="LZ2" t="n">
-        <v>-219.3887203756148</v>
+        <v>-219.3887217185673</v>
       </c>
       <c r="MA2" t="n">
-        <v>-60.8798188124393</v>
+        <v>-60.87981886842314</v>
       </c>
       <c r="MB2" t="n">
-        <v>238.4919654810327</v>
+        <v>238.4919654482169</v>
       </c>
       <c r="MC2" t="n">
-        <v>60000.00000223173</v>
+        <v>60000.00000030317</v>
       </c>
       <c r="MD2" t="n">
-        <v>0.8770577777498433</v>
+        <v>0.8770577778426889</v>
       </c>
       <c r="ME2" t="n">
-        <v>296172.0083750779</v>
+        <v>296172.0083515624</v>
       </c>
       <c r="MF2" t="n">
-        <v>364582.5527250365</v>
+        <v>364582.55269208</v>
       </c>
       <c r="MG2" t="n">
-        <v>3806.836359235945</v>
+        <v>3806.836359106978</v>
       </c>
       <c r="MH2" t="n">
-        <v>-543317.3328538025</v>
+        <v>-543317.332731077</v>
       </c>
       <c r="MI2" t="n">
-        <v>716.0542669152426</v>
+        <v>716.0542669147861</v>
       </c>
       <c r="MJ2" t="n">
-        <v>1004.486594902534</v>
+        <v>1004.48659490249</v>
       </c>
       <c r="MK2" t="n">
-        <v>1.40280791738014</v>
+        <v>1.402807917380973</v>
       </c>
       <c r="ML2" t="n">
-        <v>0.9992935019428157</v>
+        <v>0.9992935019424102</v>
       </c>
       <c r="MM2" t="n">
-        <v>309.6759322829381</v>
+        <v>309.6759322615991</v>
       </c>
       <c r="MN2" t="n">
-        <v>84109.12436097171</v>
+        <v>84109.12435828405</v>
       </c>
       <c r="MO2" t="n">
-        <v>1.188931649922181e-05</v>
+        <v>1.188931649960173e-05</v>
       </c>
       <c r="MP2" t="n">
-        <v>59957.69151207282</v>
+        <v>59957.69151012129</v>
       </c>
       <c r="MQ2" t="n">
-        <v>1.667842731734667e-05</v>
+        <v>1.667842731788953e-05</v>
       </c>
       <c r="MR2" t="n">
-        <v>0.004206072377659987</v>
+        <v>0.004206072378243445</v>
       </c>
       <c r="MS2" t="n">
-        <v>1.54286882217705e-05</v>
+        <v>1.542868822003494e-05</v>
       </c>
       <c r="MT2" t="n">
-        <v>0.02163589355746324</v>
+        <v>0.02163589355484113</v>
       </c>
       <c r="MU2" t="n">
-        <v>60000.00000223173</v>
+        <v>60000.00000030317</v>
       </c>
       <c r="MV2" t="n">
-        <v>0.8770577777498433</v>
+        <v>0.8770577778426889</v>
       </c>
       <c r="MW2" t="n">
-        <v>0.8770577777498433</v>
+        <v>0.8770577778426889</v>
       </c>
       <c r="MX2" t="n">
-        <v>296172.0083750779</v>
+        <v>296172.0083515624</v>
       </c>
       <c r="MY2" t="n">
-        <v>364582.5527250365</v>
+        <v>364582.55269208</v>
       </c>
       <c r="MZ2" t="n">
-        <v>3806.836359235945</v>
+        <v>3806.836359106978</v>
       </c>
       <c r="NA2" t="n">
-        <v>716.0542669152426</v>
+        <v>716.0542669147861</v>
       </c>
       <c r="NB2" t="n">
-        <v>1004.486594902534</v>
+        <v>1004.48659490249</v>
       </c>
       <c r="NC2" t="n">
-        <v>309.6759322829381</v>
+        <v>309.6759322615991</v>
       </c>
       <c r="ND2" t="n">
-        <v>0.9992935019428157</v>
+        <v>0.9992935019424102</v>
       </c>
       <c r="NE2" t="n">
-        <v>1.54286882217705e-05</v>
+        <v>1.542868822003494e-05</v>
       </c>
       <c r="NF2" t="n">
-        <v>0.02163589355746324</v>
+        <v>0.02163589355484113</v>
       </c>
       <c r="NG2" t="n">
-        <v>247.4095313232369</v>
+        <v>247.4095314199744</v>
       </c>
       <c r="NH2" t="n">
-        <v>68204.0051573876</v>
+        <v>68204.00528106229</v>
       </c>
       <c r="NI2" t="n">
-        <v>0.961020108309068</v>
+        <v>0.9610201096759156</v>
       </c>
       <c r="NJ2" t="n">
-        <v>302542.5666023846</v>
+        <v>302542.5666714178</v>
       </c>
       <c r="NK2" t="n">
-        <v>373512.991224814</v>
+        <v>373512.9913215978</v>
       </c>
       <c r="NL2" t="n">
-        <v>3806.836359254075</v>
+        <v>3806.836359125109</v>
       </c>
       <c r="NM2" t="n">
-        <v>-568334.6082424939</v>
+        <v>-568334.6084820668</v>
       </c>
       <c r="NN2" t="n">
-        <v>716.2272327143025</v>
+        <v>716.2272327164814</v>
       </c>
       <c r="NO2" t="n">
-        <v>1004.716528035093</v>
+        <v>1004.71652803854</v>
       </c>
       <c r="NP2" t="n">
-        <v>1.402790179071377</v>
+        <v>1.402790179071921</v>
       </c>
       <c r="NQ2" t="n">
-        <v>0.999320385902977</v>
+        <v>0.9993203859029928</v>
       </c>
       <c r="NR2" t="n">
-        <v>315.4189686476862</v>
+        <v>315.418968709418</v>
       </c>
       <c r="NS2" t="n">
-        <v>95611.05043533216</v>
+        <v>95611.0506087434</v>
       </c>
       <c r="NT2" t="n">
-        <v>1.045904208192298e-05</v>
+        <v>1.045904206295326e-05</v>
       </c>
       <c r="NU2" t="n">
-        <v>68157.77003701654</v>
+        <v>68157.77016060888</v>
       </c>
       <c r="NV2" t="n">
-        <v>1.467184151501581e-05</v>
+        <v>1.467184148841096e-05</v>
       </c>
       <c r="NW2" t="n">
-        <v>0.004054760332366732</v>
+        <v>0.004054760330790148</v>
       </c>
       <c r="NX2" t="n">
-        <v>1.589816726821841e-05</v>
+        <v>1.589816727328047e-05</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.02234742247241038</v>
+        <v>0.02234742248009837</v>
       </c>
       <c r="NZ2" t="n">
-        <v>68204.0051573876</v>
+        <v>68204.00528106229</v>
       </c>
       <c r="OA2" t="n">
-        <v>0.961020108309068</v>
+        <v>0.9610201096759156</v>
       </c>
       <c r="OB2" t="n">
-        <v>0.961020108309068</v>
+        <v>0.9610201096759156</v>
       </c>
       <c r="OC2" t="n">
-        <v>302542.5666023846</v>
+        <v>302542.5666714178</v>
       </c>
       <c r="OD2" t="n">
-        <v>373512.991224814</v>
+        <v>373512.9913215978</v>
       </c>
       <c r="OE2" t="n">
-        <v>3806.836359254075</v>
+        <v>3806.836359125109</v>
       </c>
       <c r="OF2" t="n">
-        <v>716.2272327143025</v>
+        <v>716.2272327164814</v>
       </c>
       <c r="OG2" t="n">
-        <v>1004.716528035093</v>
+        <v>1004.71652803854</v>
       </c>
       <c r="OH2" t="n">
-        <v>315.4189686476862</v>
+        <v>315.418968709418</v>
       </c>
       <c r="OI2" t="n">
-        <v>0.999320385902977</v>
+        <v>0.9993203859029928</v>
       </c>
       <c r="OJ2" t="n">
-        <v>1.589816726821841e-05</v>
+        <v>1.589816727328047e-05</v>
       </c>
       <c r="OK2" t="n">
-        <v>0.02234742247241038</v>
+        <v>0.02234742248009837</v>
       </c>
       <c r="OL2" t="n">
-        <v>269.9721836601504</v>
+        <v>269.9721839784751</v>
       </c>
       <c r="OM2" t="n">
-        <v>92506.5495037372</v>
+        <v>92506.54992843606</v>
       </c>
       <c r="ON2" t="n">
-        <v>1.194408011575276</v>
+        <v>1.194408015648986</v>
       </c>
       <c r="OO2" t="n">
-        <v>318666.3686450683</v>
+        <v>318666.3688725219</v>
       </c>
       <c r="OP2" t="n">
-        <v>396116.0747816946</v>
+        <v>396116.0751005668</v>
       </c>
       <c r="OQ2" t="n">
-        <v>3806.836359252417</v>
+        <v>3806.836359116474</v>
       </c>
       <c r="OR2" t="n">
-        <v>-631623.8499625372</v>
+        <v>-631623.8508187744</v>
       </c>
       <c r="OS2" t="n">
-        <v>716.8246501683581</v>
+        <v>716.8246501787215</v>
       </c>
       <c r="OT2" t="n">
-        <v>1005.46059051838</v>
+        <v>1005.460590531586</v>
       </c>
       <c r="OU2" t="n">
-        <v>1.402659060737143</v>
+        <v>1.402659060735286</v>
       </c>
       <c r="OV2" t="n">
-        <v>0.9994119197943444</v>
+        <v>0.999411919795604</v>
       </c>
       <c r="OW2" t="n">
-        <v>329.5025906558047</v>
+        <v>329.502590850264</v>
       </c>
       <c r="OX2" t="n">
-        <v>129679.2155704787</v>
+        <v>129679.2161658324</v>
       </c>
       <c r="OY2" t="n">
-        <v>7.711335973161519e-06</v>
+        <v>7.711335937758993e-06</v>
       </c>
       <c r="OZ2" t="n">
-        <v>92452.41356251469</v>
+        <v>92452.41398708351</v>
       </c>
       <c r="PA2" t="n">
-        <v>1.081637527314328e-05</v>
+        <v>1.081637522347128e-05</v>
       </c>
       <c r="PB2" t="n">
-        <v>0.003716489595844717</v>
+        <v>0.003716489591476169</v>
       </c>
       <c r="PC2" t="n">
-        <v>1.705750708171896e-05</v>
+        <v>1.705750709780572e-05</v>
       </c>
       <c r="PD2" t="n">
-        <v>0.02411371380670374</v>
+        <v>0.02411371383130933</v>
       </c>
       <c r="PE2" t="n">
-        <v>92506.5495037372</v>
+        <v>92506.54992843606</v>
       </c>
       <c r="PF2" t="n">
-        <v>1.194408011575276</v>
+        <v>1.194408015648986</v>
       </c>
       <c r="PG2" t="n">
-        <v>1.194408011575276</v>
+        <v>1.194408015648986</v>
       </c>
       <c r="PH2" t="n">
-        <v>318666.3686450683</v>
+        <v>318666.3688725219</v>
       </c>
       <c r="PI2" t="n">
-        <v>396116.0747816946</v>
+        <v>396116.0751005668</v>
       </c>
       <c r="PJ2" t="n">
-        <v>3806.836359252417</v>
+        <v>3806.836359116474</v>
       </c>
       <c r="PK2" t="n">
-        <v>716.8246501683581</v>
+        <v>716.8246501787215</v>
       </c>
       <c r="PL2" t="n">
-        <v>1005.46059051838</v>
+        <v>1005.460590531586</v>
       </c>
       <c r="PM2" t="n">
-        <v>329.5025906558047</v>
+        <v>329.502590850264</v>
       </c>
       <c r="PN2" t="n">
-        <v>0.9994119197943444</v>
+        <v>0.999411919795604</v>
       </c>
       <c r="PO2" t="n">
-        <v>1.705750708171896e-05</v>
+        <v>1.705750709780572e-05</v>
       </c>
       <c r="PP2" t="n">
-        <v>0.02411371380670374</v>
+        <v>0.02411371383130933</v>
       </c>
       <c r="PQ2" t="n">
-        <v>0.4315627343814719</v>
+        <v>0.4315627375458787</v>
       </c>
       <c r="PR2" t="n">
-        <v>0.810949451791791</v>
+        <v>0.8109494563703683</v>
       </c>
       <c r="PS2" t="n">
-        <v>372027.3347095784</v>
+        <v>372027.3368656215</v>
       </c>
       <c r="PT2" t="n">
-        <v>2.699358780735272</v>
+        <v>2.69935879134064</v>
       </c>
       <c r="PU2" t="n">
-        <v>382453.5008166686</v>
+        <v>382453.5011353465</v>
       </c>
       <c r="PV2" t="n">
-        <v>0.027014465759069</v>
+        <v>0.02701446546909256</v>
       </c>
       <c r="PW2" t="n">
         <v>0</v>
       </c>
       <c r="PX2" t="n">
-        <v>0.01388396196189312</v>
+        <v>0.01388396196493269</v>
       </c>
       <c r="PY2" t="n">
-        <v>0.07948208923126412</v>
+        <v>0.07948208846845778</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.04125112751491547</v>
+        <v>0.04125112711910659</v>
       </c>
       <c r="QA2" t="n">
-        <v>0.1616316444671417</v>
+        <v>0.1616316430215896</v>
       </c>
       <c r="QB2" t="n">
-        <v>1.82960119277098e-10</v>
+        <v>6.542680286436564e-11</v>
       </c>
       <c r="QC2" t="n">
         <v>0</v>
@@ -4416,10 +4416,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>79.43107418894033</v>
+        <v>79.4310741280553</v>
       </c>
       <c r="D3" t="n">
-        <v>79.43107418894033</v>
+        <v>79.4310741280553</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4428,10 +4428,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>79.43107418894033</v>
+        <v>79.4310741280553</v>
       </c>
       <c r="H3" t="n">
-        <v>79.43107418894033</v>
+        <v>79.4310741280553</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4440,97 +4440,97 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>292.4545872493798</v>
+        <v>292.4545872542021</v>
       </c>
       <c r="L3" t="n">
-        <v>132934.6669374843</v>
+        <v>132934.6669451465</v>
       </c>
       <c r="M3" t="n">
-        <v>1.58431436417402</v>
+        <v>1.58431436423916</v>
       </c>
       <c r="N3" t="n">
-        <v>334723.0347913278</v>
+        <v>334723.0347947778</v>
       </c>
       <c r="O3" t="n">
-        <v>418629.7833151851</v>
+        <v>418629.7833200215</v>
       </c>
       <c r="P3" t="n">
         <v>3782.917347718237</v>
       </c>
       <c r="Q3" t="n">
-        <v>-687701.7482102704</v>
+        <v>-687701.7482236767</v>
       </c>
       <c r="R3" t="n">
-        <v>717.7175347744801</v>
+        <v>717.7175347746988</v>
       </c>
       <c r="S3" t="n">
-        <v>1006.653029401129</v>
+        <v>1006.653029401382</v>
       </c>
       <c r="T3" t="n">
-        <v>1.402575498893778</v>
+        <v>1.402575498893704</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9994986783122424</v>
+        <v>0.9994986783122761</v>
       </c>
       <c r="V3" t="n">
-        <v>342.9681628813209</v>
+        <v>342.9681628841512</v>
       </c>
       <c r="W3" t="n">
-        <v>186358.4003935299</v>
+        <v>186358.4004042678</v>
       </c>
       <c r="X3" t="n">
-        <v>5.366004418841957e-06</v>
+        <v>5.366004418532768e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>132868.7122657655</v>
+        <v>132868.7122734284</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.526226324823475e-06</v>
+        <v>7.526226324389418e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.00343226290239507</v>
+        <v>0.003432262902338567</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.817640677280773e-05</v>
+        <v>1.817640677304364e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02583200301788433</v>
+        <v>0.02583200301824773</v>
       </c>
       <c r="AD3" t="n">
-        <v>132934.6669374843</v>
+        <v>132934.6669451465</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.58431436417402</v>
+        <v>1.58431436423916</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.58431436417402</v>
+        <v>1.58431436423916</v>
       </c>
       <c r="AG3" t="n">
-        <v>334723.0347913278</v>
+        <v>334723.0347947778</v>
       </c>
       <c r="AH3" t="n">
-        <v>418629.7833151851</v>
+        <v>418629.7833200215</v>
       </c>
       <c r="AI3" t="n">
         <v>3782.917347718237</v>
       </c>
       <c r="AJ3" t="n">
-        <v>717.7175347744801</v>
+        <v>717.7175347746988</v>
       </c>
       <c r="AK3" t="n">
-        <v>1006.653029401129</v>
+        <v>1006.653029401382</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.9681628813209</v>
+        <v>342.9681628841512</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.9994986783122424</v>
+        <v>0.9994986783122761</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.817640677280773e-05</v>
+        <v>1.817640677304364e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02583200301788433</v>
+        <v>0.02583200301824773</v>
       </c>
       <c r="AP3" t="n">
         <v>295.6000000000945</v>
@@ -4719,16 +4719,16 @@
         <v>0.0260686341970676</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.2315989726907284</v>
+        <v>0.2315989725112933</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.2315989726907284</v>
+        <v>0.2315989725112933</v>
       </c>
       <c r="DB3" t="n">
-        <v>181117.9533236992</v>
+        <v>181117.9531899657</v>
       </c>
       <c r="DC3" t="n">
-        <v>2.701669619660807</v>
+        <v>2.70166961770102</v>
       </c>
       <c r="DD3" t="n">
         <v>421784.4310884894</v>
@@ -4737,325 +4737,325 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>262.5129103429575</v>
+        <v>262.5129109179749</v>
       </c>
       <c r="DG3" t="n">
-        <v>108.2771576378375</v>
+        <v>108.2771577267299</v>
       </c>
       <c r="DH3" t="n">
-        <v>239.1423953016289</v>
+        <v>239.1423958925926</v>
       </c>
       <c r="DI3" t="n">
-        <v>65.64027849601507</v>
+        <v>65.64027853154167</v>
       </c>
       <c r="DJ3" t="n">
-        <v>262.5129103429575</v>
+        <v>262.5129109179749</v>
       </c>
       <c r="DK3" t="n">
-        <v>108.2771576378375</v>
+        <v>108.2771577267299</v>
       </c>
       <c r="DL3" t="n">
-        <v>239.1423953016289</v>
+        <v>239.1423958925926</v>
       </c>
       <c r="DM3" t="n">
-        <v>65.64027849601507</v>
+        <v>65.64027853154167</v>
       </c>
       <c r="DN3" t="n">
-        <v>261.2151830307634</v>
+        <v>261.2151828802424</v>
       </c>
       <c r="DO3" t="n">
-        <v>87088.65794720425</v>
+        <v>87088.65775948153</v>
       </c>
       <c r="DP3" t="n">
-        <v>1.16223767362915</v>
+        <v>1.162237671794297</v>
       </c>
       <c r="DQ3" t="n">
-        <v>312396.0335507739</v>
+        <v>312396.0334432466</v>
       </c>
       <c r="DR3" t="n">
-        <v>387327.9170400306</v>
+        <v>387327.9168892818</v>
       </c>
       <c r="DS3" t="n">
-        <v>3791.058035505446</v>
+        <v>3791.058035546673</v>
       </c>
       <c r="DT3" t="n">
-        <v>-602954.0015847707</v>
+        <v>-602954.0011756553</v>
       </c>
       <c r="DU3" t="n">
-        <v>716.5795267674827</v>
+        <v>716.5795267632767</v>
       </c>
       <c r="DV3" t="n">
-        <v>1005.244489918072</v>
+        <v>1005.244489912598</v>
       </c>
       <c r="DW3" t="n">
-        <v>1.402837301887157</v>
+        <v>1.402837301887753</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.9993370812322214</v>
+        <v>0.9993370812316439</v>
       </c>
       <c r="DY3" t="n">
-        <v>324.1108394692372</v>
+        <v>324.1108393757353</v>
       </c>
       <c r="DZ3" t="n">
-        <v>122090.5528362877</v>
+        <v>122090.5525730972</v>
       </c>
       <c r="EA3" t="n">
-        <v>8.190641919206547e-06</v>
+        <v>8.190641936863105e-06</v>
       </c>
       <c r="EB3" t="n">
-        <v>87031.15655111695</v>
+        <v>87031.15636346706</v>
       </c>
       <c r="EC3" t="n">
-        <v>1.149013801066356e-05</v>
+        <v>1.149013803543771e-05</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.003841562700091927</v>
+        <v>0.003841562702299367</v>
       </c>
       <c r="EE3" t="n">
-        <v>1.661296753760587e-05</v>
+        <v>1.661296752989899e-05</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.02343549248206899</v>
+        <v>0.02343549247031509</v>
       </c>
       <c r="EG3" t="n">
-        <v>87088.65794720425</v>
+        <v>87088.65775948153</v>
       </c>
       <c r="EH3" t="n">
-        <v>1.16223767362915</v>
+        <v>1.162237671794297</v>
       </c>
       <c r="EI3" t="n">
-        <v>1.16223767362915</v>
+        <v>1.162237671794297</v>
       </c>
       <c r="EJ3" t="n">
-        <v>312396.0335507739</v>
+        <v>312396.0334432466</v>
       </c>
       <c r="EK3" t="n">
-        <v>387327.9170400306</v>
+        <v>387327.9168892818</v>
       </c>
       <c r="EL3" t="n">
-        <v>3791.058035505446</v>
+        <v>3791.058035546673</v>
       </c>
       <c r="EM3" t="n">
-        <v>716.5795267674827</v>
+        <v>716.5795267632767</v>
       </c>
       <c r="EN3" t="n">
-        <v>1005.244489918072</v>
+        <v>1005.244489912598</v>
       </c>
       <c r="EO3" t="n">
-        <v>324.1108394692372</v>
+        <v>324.1108393757353</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.9993370812322214</v>
+        <v>0.9993370812316439</v>
       </c>
       <c r="EQ3" t="n">
-        <v>1.661296753760587e-05</v>
+        <v>1.661296752989899e-05</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.02343549248206899</v>
+        <v>0.02343549247031509</v>
       </c>
       <c r="ES3" t="n">
-        <v>295.591048967697</v>
+        <v>295.5910489676601</v>
       </c>
       <c r="ET3" t="n">
-        <v>134139.5092342214</v>
+        <v>134139.5092182979</v>
       </c>
       <c r="EU3" t="n">
-        <v>1.58165421962672</v>
+        <v>1.581654219439077</v>
       </c>
       <c r="EV3" t="n">
-        <v>336974.8010381738</v>
+        <v>336974.80103818</v>
       </c>
       <c r="EW3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="EX3" t="n">
-        <v>3791.05803551067</v>
+        <v>3791.05803554473</v>
       </c>
       <c r="EY3" t="n">
-        <v>-698818.3903254259</v>
+        <v>-698818.3903353538</v>
       </c>
       <c r="EZ3" t="n">
-        <v>717.8531809317011</v>
+        <v>717.8531809316596</v>
       </c>
       <c r="FA3" t="n">
-        <v>1006.758198712905</v>
+        <v>1006.758198712644</v>
       </c>
       <c r="FB3" t="n">
-        <v>1.402456972338319</v>
+        <v>1.402456972338036</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.9995342034561395</v>
+        <v>0.9995342034561937</v>
       </c>
       <c r="FD3" t="n">
-        <v>344.8000420523298</v>
+        <v>344.800042052292</v>
       </c>
       <c r="FE3" t="n">
-        <v>188038.2343417776</v>
+        <v>188038.234319428</v>
       </c>
       <c r="FF3" t="n">
-        <v>5.318067378692802e-06</v>
+        <v>5.318067379324891e-06</v>
       </c>
       <c r="FG3" t="n">
-        <v>134077.7207790276</v>
+        <v>134077.7207631186</v>
       </c>
       <c r="FH3" t="n">
-        <v>7.45836067461269e-06</v>
+        <v>7.458360675497661e-06</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.003395544026640144</v>
+        <v>0.003395544026639092</v>
       </c>
       <c r="FJ3" t="n">
-        <v>1.832896064261732e-05</v>
+        <v>1.832896064261324e-05</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.02606672882652069</v>
+        <v>0.02606672882651282</v>
       </c>
       <c r="FL3" t="n">
-        <v>134139.5092342214</v>
+        <v>134139.5092182979</v>
       </c>
       <c r="FM3" t="n">
-        <v>1.58165421962672</v>
+        <v>1.581654219439077</v>
       </c>
       <c r="FN3" t="n">
-        <v>1.58165421962672</v>
+        <v>1.581654219439077</v>
       </c>
       <c r="FO3" t="n">
-        <v>336974.8010381738</v>
+        <v>336974.80103818</v>
       </c>
       <c r="FP3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="FQ3" t="n">
-        <v>3791.05803551067</v>
+        <v>3791.05803554473</v>
       </c>
       <c r="FR3" t="n">
-        <v>717.8531809317011</v>
+        <v>717.8531809316596</v>
       </c>
       <c r="FS3" t="n">
-        <v>1006.758198712905</v>
+        <v>1006.758198712644</v>
       </c>
       <c r="FT3" t="n">
-        <v>344.8000420523298</v>
+        <v>344.800042052292</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.9995342034561395</v>
+        <v>0.9995342034561937</v>
       </c>
       <c r="FV3" t="n">
-        <v>1.832896064261732e-05</v>
+        <v>1.832896064261324e-05</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.02606672882652069</v>
+        <v>0.02606672882651282</v>
       </c>
       <c r="FX3" t="n">
-        <v>295.591048967697</v>
+        <v>295.5910489676601</v>
       </c>
       <c r="FY3" t="n">
-        <v>134139.5092342214</v>
+        <v>134139.5092182979</v>
       </c>
       <c r="FZ3" t="n">
-        <v>1.58165421962672</v>
+        <v>1.581654219439077</v>
       </c>
       <c r="GA3" t="n">
-        <v>336974.8010381738</v>
+        <v>336974.80103818</v>
       </c>
       <c r="GB3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="GC3" t="n">
-        <v>3791.05803551067</v>
+        <v>3791.05803554473</v>
       </c>
       <c r="GD3" t="n">
-        <v>-698818.3903254259</v>
+        <v>-698818.3903353538</v>
       </c>
       <c r="GE3" t="n">
-        <v>717.8531809317011</v>
+        <v>717.8531809316596</v>
       </c>
       <c r="GF3" t="n">
-        <v>1006.758198712905</v>
+        <v>1006.758198712644</v>
       </c>
       <c r="GG3" t="n">
-        <v>1.402456972338319</v>
+        <v>1.402456972338036</v>
       </c>
       <c r="GH3" t="n">
-        <v>0.9995342034561395</v>
+        <v>0.9995342034561937</v>
       </c>
       <c r="GI3" t="n">
-        <v>344.8000420523298</v>
+        <v>344.800042052292</v>
       </c>
       <c r="GJ3" t="n">
-        <v>188038.2343417776</v>
+        <v>188038.234319428</v>
       </c>
       <c r="GK3" t="n">
-        <v>5.318067378692802e-06</v>
+        <v>5.318067379324891e-06</v>
       </c>
       <c r="GL3" t="n">
-        <v>134077.7207790276</v>
+        <v>134077.7207631186</v>
       </c>
       <c r="GM3" t="n">
-        <v>7.45836067461269e-06</v>
+        <v>7.458360675497661e-06</v>
       </c>
       <c r="GN3" t="n">
-        <v>0.003395544026640144</v>
+        <v>0.003395544026639092</v>
       </c>
       <c r="GO3" t="n">
-        <v>1.832896064261732e-05</v>
+        <v>1.832896064261324e-05</v>
       </c>
       <c r="GP3" t="n">
-        <v>0.02606672882652069</v>
+        <v>0.02606672882651282</v>
       </c>
       <c r="GQ3" t="n">
-        <v>134139.5092342214</v>
+        <v>134139.5092182979</v>
       </c>
       <c r="GR3" t="n">
-        <v>1.58165421962672</v>
+        <v>1.581654219439077</v>
       </c>
       <c r="GS3" t="n">
-        <v>1.58165421962672</v>
+        <v>1.581654219439077</v>
       </c>
       <c r="GT3" t="n">
-        <v>336974.8010381738</v>
+        <v>336974.80103818</v>
       </c>
       <c r="GU3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="GV3" t="n">
-        <v>3791.05803551067</v>
+        <v>3791.05803554473</v>
       </c>
       <c r="GW3" t="n">
-        <v>717.8531809317011</v>
+        <v>717.8531809316596</v>
       </c>
       <c r="GX3" t="n">
-        <v>1006.758198712905</v>
+        <v>1006.758198712644</v>
       </c>
       <c r="GY3" t="n">
-        <v>344.8000420523298</v>
+        <v>344.800042052292</v>
       </c>
       <c r="GZ3" t="n">
-        <v>0.9995342034561395</v>
+        <v>0.9995342034561937</v>
       </c>
       <c r="HA3" t="n">
-        <v>1.832896064261732e-05</v>
+        <v>1.832896064261324e-05</v>
       </c>
       <c r="HB3" t="n">
-        <v>0.02606672882652069</v>
+        <v>0.02606672882651282</v>
       </c>
       <c r="HC3" t="n">
-        <v>0.8099479510554097</v>
+        <v>0.8099479530632077</v>
       </c>
       <c r="HD3" t="n">
-        <v>0.8099479510554097</v>
+        <v>0.8099479530632077</v>
       </c>
       <c r="HE3" t="n">
-        <v>480436.6597711773</v>
+        <v>480436.6602879437</v>
       </c>
       <c r="HF3" t="n">
-        <v>2.701669619679411</v>
+        <v>2.701669617632212</v>
       </c>
       <c r="HG3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="HH3" t="n">
-        <v>0.0176236154688357</v>
+        <v>0.01762361550506033</v>
       </c>
       <c r="HI3" t="n">
         <v>0</v>
@@ -5064,16 +5064,16 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="HK3" t="n">
-        <v>0.04914564470857011</v>
+        <v>0.04914564471667305</v>
       </c>
       <c r="HL3" t="n">
         <v>0</v>
       </c>
       <c r="HM3" t="n">
-        <v>0.08204932871664894</v>
+        <v>0.08204932876097651</v>
       </c>
       <c r="HN3" t="n">
-        <v>-3.525665870363071e-12</v>
+        <v>-9.014039514809724e-12</v>
       </c>
       <c r="HO3" t="n">
         <v>0</v>
@@ -5082,664 +5082,664 @@
         <v>165.3032</v>
       </c>
       <c r="HQ3" t="n">
-        <v>262.5129103429575</v>
+        <v>262.5129109179749</v>
       </c>
       <c r="HR3" t="n">
-        <v>108.2771576378375</v>
+        <v>108.2771577267299</v>
       </c>
       <c r="HS3" t="n">
-        <v>239.1423953016289</v>
+        <v>239.1423958925926</v>
       </c>
       <c r="HT3" t="n">
-        <v>65.64027849601507</v>
+        <v>65.64027853154167</v>
       </c>
       <c r="HU3" t="n">
-        <v>131.0578865575102</v>
+        <v>131.0578869639054</v>
       </c>
       <c r="HV3" t="n">
-        <v>108.2771576378375</v>
+        <v>108.2771577267299</v>
       </c>
       <c r="HW3" t="n">
-        <v>73.83919530162885</v>
+        <v>73.83919589259261</v>
       </c>
       <c r="HX3" t="n">
-        <v>34.2918835375476</v>
+        <v>34.29188372910139</v>
       </c>
       <c r="HY3" t="n">
-        <v>261.2151830308566</v>
+        <v>261.2151828803363</v>
       </c>
       <c r="HZ3" t="n">
-        <v>87088.65794715247</v>
+        <v>87088.65775959531</v>
       </c>
       <c r="IA3" t="n">
-        <v>1.162237673628042</v>
+        <v>1.162237671795397</v>
       </c>
       <c r="IB3" t="n">
-        <v>312396.0335508411</v>
+        <v>312396.0334433134</v>
       </c>
       <c r="IC3" t="n">
-        <v>387327.9170401248</v>
+        <v>387327.9168893756</v>
       </c>
       <c r="ID3" t="n">
-        <v>3791.058035505976</v>
+        <v>3791.058035546658</v>
       </c>
       <c r="IE3" t="n">
-        <v>-602954.0015851686</v>
+        <v>-602954.0011759131</v>
       </c>
       <c r="IF3" t="n">
-        <v>716.5795267674845</v>
+        <v>716.5795267632793</v>
       </c>
       <c r="IG3" t="n">
-        <v>1005.244489918071</v>
+        <v>1005.244489912601</v>
       </c>
       <c r="IH3" t="n">
-        <v>1.402837301887153</v>
+        <v>1.402837301887753</v>
       </c>
       <c r="II3" t="n">
-        <v>0.9993370812322231</v>
+        <v>0.9993370812316443</v>
       </c>
       <c r="IJ3" t="n">
-        <v>324.1108394692951</v>
+        <v>324.1108393757937</v>
       </c>
       <c r="IK3" t="n">
-        <v>122090.552836215</v>
+        <v>122090.5525732568</v>
       </c>
       <c r="IL3" t="n">
-        <v>8.190641919211428e-06</v>
+        <v>8.190641936852404e-06</v>
       </c>
       <c r="IM3" t="n">
-        <v>87031.15655106535</v>
+        <v>87031.15636358077</v>
       </c>
       <c r="IN3" t="n">
-        <v>1.149013801067037e-05</v>
+        <v>1.14901380354227e-05</v>
       </c>
       <c r="IO3" t="n">
-        <v>0.003841562700090534</v>
+        <v>0.003841562702297991</v>
       </c>
       <c r="IP3" t="n">
-        <v>1.661296753761062e-05</v>
+        <v>1.66129675299038e-05</v>
       </c>
       <c r="IQ3" t="n">
-        <v>0.0234354924820762</v>
+        <v>0.02343549247032243</v>
       </c>
       <c r="IR3" t="n">
-        <v>87088.65794715247</v>
+        <v>87088.65775959531</v>
       </c>
       <c r="IS3" t="n">
-        <v>1.162237673628042</v>
+        <v>1.162237671795397</v>
       </c>
       <c r="IT3" t="n">
-        <v>1.162237673628042</v>
+        <v>1.162237671795397</v>
       </c>
       <c r="IU3" t="n">
-        <v>312396.0335508411</v>
+        <v>312396.0334433134</v>
       </c>
       <c r="IV3" t="n">
-        <v>387327.9170401248</v>
+        <v>387327.9168893756</v>
       </c>
       <c r="IW3" t="n">
-        <v>3791.058035505976</v>
+        <v>3791.058035546658</v>
       </c>
       <c r="IX3" t="n">
-        <v>716.5795267674845</v>
+        <v>716.5795267632793</v>
       </c>
       <c r="IY3" t="n">
-        <v>1005.244489918071</v>
+        <v>1005.244489912601</v>
       </c>
       <c r="IZ3" t="n">
-        <v>324.1108394692951</v>
+        <v>324.1108393757937</v>
       </c>
       <c r="JA3" t="n">
-        <v>0.9993370812322231</v>
+        <v>0.9993370812316443</v>
       </c>
       <c r="JB3" t="n">
-        <v>1.661296753761062e-05</v>
+        <v>1.66129675299038e-05</v>
       </c>
       <c r="JC3" t="n">
-        <v>0.0234354924820762</v>
+        <v>0.02343549247032243</v>
       </c>
       <c r="JD3" t="n">
-        <v>295.5910489675961</v>
+        <v>295.5910489677525</v>
       </c>
       <c r="JE3" t="n">
-        <v>134139.509233814</v>
+        <v>134139.5092151126</v>
       </c>
       <c r="JF3" t="n">
-        <v>1.581654219622456</v>
+        <v>1.581654219401005</v>
       </c>
       <c r="JG3" t="n">
-        <v>336974.8010381023</v>
+        <v>336974.8010382529</v>
       </c>
       <c r="JH3" t="n">
-        <v>421784.4310884892</v>
+        <v>421784.4310886903</v>
       </c>
       <c r="JI3" t="n">
-        <v>3791.058035511202</v>
+        <v>3791.058035551884</v>
       </c>
       <c r="JJ3" t="n">
-        <v>-698818.3903253012</v>
+        <v>-698818.3903377183</v>
       </c>
       <c r="JK3" t="n">
-        <v>717.8531809316956</v>
+        <v>717.8531809316556</v>
       </c>
       <c r="JL3" t="n">
-        <v>1006.758198712895</v>
+        <v>1006.758198712594</v>
       </c>
       <c r="JM3" t="n">
-        <v>1.402456972338316</v>
+        <v>1.402456972337975</v>
       </c>
       <c r="JN3" t="n">
-        <v>0.9995342034561396</v>
+        <v>0.9995342034562058</v>
       </c>
       <c r="JO3" t="n">
-        <v>344.8000420522707</v>
+        <v>344.8000420523425</v>
       </c>
       <c r="JP3" t="n">
-        <v>188038.2343412061</v>
+        <v>188038.2343149567</v>
       </c>
       <c r="JQ3" t="n">
-        <v>5.318067378708965e-06</v>
+        <v>5.318067379451345e-06</v>
       </c>
       <c r="JR3" t="n">
-        <v>134077.7207786204</v>
+        <v>134077.7207599363</v>
       </c>
       <c r="JS3" t="n">
-        <v>7.458360674635342e-06</v>
+        <v>7.458360675674681e-06</v>
       </c>
       <c r="JT3" t="n">
-        <v>0.003395544026641278</v>
+        <v>0.003395544026637722</v>
       </c>
       <c r="JU3" t="n">
-        <v>1.832896064261236e-05</v>
+        <v>1.832896064261725e-05</v>
       </c>
       <c r="JV3" t="n">
-        <v>0.02606672882651303</v>
+        <v>0.02606672882651869</v>
       </c>
       <c r="JW3" t="n">
-        <v>134139.509233814</v>
+        <v>134139.5092151126</v>
       </c>
       <c r="JX3" t="n">
-        <v>1.581654219622456</v>
+        <v>1.581654219401005</v>
       </c>
       <c r="JY3" t="n">
-        <v>1.581654219622456</v>
+        <v>1.581654219401005</v>
       </c>
       <c r="JZ3" t="n">
-        <v>336974.8010381023</v>
+        <v>336974.8010382529</v>
       </c>
       <c r="KA3" t="n">
-        <v>421784.4310884892</v>
+        <v>421784.4310886903</v>
       </c>
       <c r="KB3" t="n">
-        <v>3791.058035511202</v>
+        <v>3791.058035551884</v>
       </c>
       <c r="KC3" t="n">
-        <v>717.8531809316956</v>
+        <v>717.8531809316556</v>
       </c>
       <c r="KD3" t="n">
-        <v>1006.758198712895</v>
+        <v>1006.758198712594</v>
       </c>
       <c r="KE3" t="n">
-        <v>344.8000420522707</v>
+        <v>344.8000420523425</v>
       </c>
       <c r="KF3" t="n">
-        <v>0.9995342034561396</v>
+        <v>0.9995342034562058</v>
       </c>
       <c r="KG3" t="n">
-        <v>1.832896064261236e-05</v>
+        <v>1.832896064261725e-05</v>
       </c>
       <c r="KH3" t="n">
-        <v>0.02606672882651303</v>
+        <v>0.02606672882651869</v>
       </c>
       <c r="KI3" t="n">
-        <v>269.7870970406806</v>
+        <v>269.7870969433507</v>
       </c>
       <c r="KJ3" t="n">
-        <v>97484.73994114513</v>
+        <v>97484.73980452582</v>
       </c>
       <c r="KK3" t="n">
-        <v>1.259590688245558</v>
+        <v>1.259590686935245</v>
       </c>
       <c r="KL3" t="n">
-        <v>318522.0191498317</v>
+        <v>318522.0190802969</v>
       </c>
       <c r="KM3" t="n">
-        <v>395916.0018545851</v>
+        <v>395916.0017570976</v>
       </c>
       <c r="KN3" t="n">
-        <v>3791.058035505976</v>
+        <v>3791.058035546658</v>
       </c>
       <c r="KO3" t="n">
-        <v>-626862.5402573177</v>
+        <v>-626862.5399967971</v>
       </c>
       <c r="KP3" t="n">
-        <v>716.8352535790253</v>
+        <v>716.8352535758604</v>
       </c>
       <c r="KQ3" t="n">
-        <v>1005.559450772062</v>
+        <v>1005.559450767985</v>
       </c>
       <c r="KR3" t="n">
-        <v>1.402776224734331</v>
+        <v>1.402776224734837</v>
       </c>
       <c r="KS3" t="n">
-        <v>0.9993780141830184</v>
+        <v>0.9993780141826107</v>
       </c>
       <c r="KT3" t="n">
-        <v>329.3922557267485</v>
+        <v>329.3922556672556</v>
       </c>
       <c r="KU3" t="n">
-        <v>136664.6552255702</v>
+        <v>136664.655034035</v>
       </c>
       <c r="KV3" t="n">
-        <v>7.317180863987562e-06</v>
+        <v>7.317180874242573e-06</v>
       </c>
       <c r="KW3" t="n">
-        <v>97424.41653618187</v>
+        <v>97424.41639960669</v>
       </c>
       <c r="KX3" t="n">
-        <v>1.026436734808277e-05</v>
+        <v>1.026436736247195e-05</v>
       </c>
       <c r="KY3" t="n">
-        <v>0.003719733428123762</v>
+        <v>0.003719733429461368</v>
       </c>
       <c r="KZ3" t="n">
-        <v>1.704894490776241e-05</v>
+        <v>1.704894490284151e-05</v>
       </c>
       <c r="LA3" t="n">
-        <v>0.02410124998837079</v>
+        <v>0.02410124998084411</v>
       </c>
       <c r="LB3" t="n">
-        <v>97484.73994114513</v>
+        <v>97484.73980452582</v>
       </c>
       <c r="LC3" t="n">
-        <v>1.259590688245558</v>
+        <v>1.259590686935245</v>
       </c>
       <c r="LD3" t="n">
-        <v>1.259590688245558</v>
+        <v>1.259590686935245</v>
       </c>
       <c r="LE3" t="n">
-        <v>318522.0191498317</v>
+        <v>318522.0190802969</v>
       </c>
       <c r="LF3" t="n">
-        <v>395916.0018545851</v>
+        <v>395916.0017570976</v>
       </c>
       <c r="LG3" t="n">
-        <v>3791.058035505976</v>
+        <v>3791.058035546658</v>
       </c>
       <c r="LH3" t="n">
-        <v>716.8352535790253</v>
+        <v>716.8352535758604</v>
       </c>
       <c r="LI3" t="n">
-        <v>1005.559450772062</v>
+        <v>1005.559450767985</v>
       </c>
       <c r="LJ3" t="n">
-        <v>329.3922557267485</v>
+        <v>329.3922556672556</v>
       </c>
       <c r="LK3" t="n">
-        <v>0.9993780141830184</v>
+        <v>0.9993780141826107</v>
       </c>
       <c r="LL3" t="n">
-        <v>1.704894490776241e-05</v>
+        <v>1.704894490284151e-05</v>
       </c>
       <c r="LM3" t="n">
-        <v>0.02410124998837079</v>
+        <v>0.02410124998084411</v>
       </c>
       <c r="LN3" t="n">
-        <v>0.809947951055265</v>
+        <v>0.8099479530630619</v>
       </c>
       <c r="LO3" t="n">
-        <v>0.4043613190231671</v>
+        <v>0.4043613203936973</v>
       </c>
       <c r="LP3" t="n">
-        <v>238938.043944756</v>
+        <v>238938.044419756</v>
       </c>
       <c r="LQ3" t="n">
-        <v>2.701669619676836</v>
+        <v>2.701669617634769</v>
       </c>
       <c r="LR3" t="n">
-        <v>382253.4278895655</v>
+        <v>382253.4277918774</v>
       </c>
       <c r="LS3" t="n">
         <v>165.3032</v>
       </c>
       <c r="LT3" t="n">
-        <v>140.9419861881458</v>
+        <v>140.9419859199692</v>
       </c>
       <c r="LU3" t="n">
-        <v>126.2302382900849</v>
+        <v>126.2302382019386</v>
       </c>
       <c r="LV3" t="n">
-        <v>-62.69426139518558</v>
+        <v>-62.69426096977813</v>
       </c>
       <c r="LW3" t="n">
-        <v>-26.41202593200411</v>
+        <v>-26.41202579305824</v>
       </c>
       <c r="LX3" t="n">
-        <v>260.6087401861664</v>
+        <v>260.6087397712971</v>
       </c>
       <c r="LY3" t="n">
-        <v>126.2302382900849</v>
+        <v>126.2302382019386</v>
       </c>
       <c r="LZ3" t="n">
-        <v>-227.9974613951856</v>
+        <v>-227.9974609697781</v>
       </c>
       <c r="MA3" t="n">
-        <v>-61.02900059352898</v>
+        <v>-61.02900056518168</v>
       </c>
       <c r="MB3" t="n">
-        <v>235.8696637936648</v>
+        <v>235.8696638038597</v>
       </c>
       <c r="MC3" t="n">
-        <v>57500.00000073959</v>
+        <v>57500.00000150197</v>
       </c>
       <c r="MD3" t="n">
-        <v>0.8498616913339562</v>
+        <v>0.849861691308386</v>
       </c>
       <c r="ME3" t="n">
-        <v>294299.4762442386</v>
+        <v>294299.476251543</v>
       </c>
       <c r="MF3" t="n">
-        <v>361957.5441240682</v>
+        <v>361957.5441343053</v>
       </c>
       <c r="MG3" t="n">
-        <v>3807.97674827665</v>
+        <v>3807.976748316248</v>
       </c>
       <c r="MH3" t="n">
-        <v>-536228.6512260382</v>
+        <v>-536228.6512639628</v>
       </c>
       <c r="MI3" t="n">
-        <v>716.0083017014059</v>
+        <v>716.0083017015384</v>
       </c>
       <c r="MJ3" t="n">
-        <v>1004.418583802459</v>
+        <v>1004.418583802468</v>
       </c>
       <c r="MK3" t="n">
-        <v>1.402802986244323</v>
+        <v>1.402802986244076</v>
       </c>
       <c r="ML3" t="n">
-        <v>0.9992893832278382</v>
+        <v>0.9992893832279618</v>
       </c>
       <c r="MM3" t="n">
-        <v>307.9669022581267</v>
+        <v>307.9669022647932</v>
       </c>
       <c r="MN3" t="n">
-        <v>80603.95325991548</v>
+        <v>80603.95326097994</v>
       </c>
       <c r="MO3" t="n">
-        <v>1.24063393860522e-05</v>
+        <v>1.240633938588836e-05</v>
       </c>
       <c r="MP3" t="n">
-        <v>57459.21134350712</v>
+        <v>57459.21134427605</v>
       </c>
       <c r="MQ3" t="n">
-        <v>1.740364993911459e-05</v>
+        <v>1.740364993888169e-05</v>
       </c>
       <c r="MR3" t="n">
-        <v>0.004252688981129398</v>
+        <v>0.004252688980944152</v>
       </c>
       <c r="MS3" t="n">
-        <v>1.528932515195857e-05</v>
+        <v>1.528932515250009e-05</v>
       </c>
       <c r="MT3" t="n">
-        <v>0.02142505496637554</v>
+        <v>0.02142505496719298</v>
       </c>
       <c r="MU3" t="n">
-        <v>57500.00000073959</v>
+        <v>57500.00000150197</v>
       </c>
       <c r="MV3" t="n">
-        <v>0.8498616913339562</v>
+        <v>0.849861691308386</v>
       </c>
       <c r="MW3" t="n">
-        <v>0.8498616913339562</v>
+        <v>0.849861691308386</v>
       </c>
       <c r="MX3" t="n">
-        <v>294299.4762442386</v>
+        <v>294299.476251543</v>
       </c>
       <c r="MY3" t="n">
-        <v>361957.5441240682</v>
+        <v>361957.5441343053</v>
       </c>
       <c r="MZ3" t="n">
-        <v>3807.97674827665</v>
+        <v>3807.976748316248</v>
       </c>
       <c r="NA3" t="n">
-        <v>716.0083017014059</v>
+        <v>716.0083017015384</v>
       </c>
       <c r="NB3" t="n">
-        <v>1004.418583802459</v>
+        <v>1004.418583802468</v>
       </c>
       <c r="NC3" t="n">
-        <v>307.9669022581267</v>
+        <v>307.9669022647932</v>
       </c>
       <c r="ND3" t="n">
-        <v>0.9992893832278382</v>
+        <v>0.9992893832279618</v>
       </c>
       <c r="NE3" t="n">
-        <v>1.528932515195857e-05</v>
+        <v>1.528932515250009e-05</v>
       </c>
       <c r="NF3" t="n">
-        <v>0.02142505496637554</v>
+        <v>0.02142505496719298</v>
       </c>
       <c r="NG3" t="n">
-        <v>245.7879687443229</v>
+        <v>245.7879687170588</v>
       </c>
       <c r="NH3" t="n">
-        <v>66392.36250326909</v>
+        <v>66392.36246616</v>
       </c>
       <c r="NI3" t="n">
-        <v>0.941667630194427</v>
+        <v>0.9416676297725215</v>
       </c>
       <c r="NJ3" t="n">
-        <v>301384.774280909</v>
+        <v>301384.774261461</v>
       </c>
       <c r="NK3" t="n">
-        <v>371889.8658593048</v>
+        <v>371889.8658320382</v>
       </c>
       <c r="NL3" t="n">
-        <v>3807.976748285308</v>
+        <v>3807.976748334706</v>
       </c>
       <c r="NM3" t="n">
-        <v>-564065.0041273528</v>
+        <v>-564065.0040629396</v>
       </c>
       <c r="NN3" t="n">
-        <v>716.1922605920033</v>
+        <v>716.1922605913956</v>
       </c>
       <c r="NO3" t="n">
-        <v>1004.665486152365</v>
+        <v>1004.665486151339</v>
       </c>
       <c r="NP3" t="n">
-        <v>1.402787409796791</v>
+        <v>1.402787409796549</v>
       </c>
       <c r="NQ3" t="n">
-        <v>0.9993178167726409</v>
+        <v>0.9993178167726708</v>
       </c>
       <c r="NR3" t="n">
-        <v>314.3824840577139</v>
+        <v>314.3824840402593</v>
       </c>
       <c r="NS3" t="n">
-        <v>93070.98798072801</v>
+        <v>93070.98792869378</v>
       </c>
       <c r="NT3" t="n">
-        <v>1.074448678042472e-05</v>
+        <v>1.074448678643176e-05</v>
       </c>
       <c r="NU3" t="n">
-        <v>66347.17943056696</v>
+        <v>66347.17939348501</v>
       </c>
       <c r="NV3" t="n">
-        <v>1.507223078030786e-05</v>
+        <v>1.507223078873185e-05</v>
       </c>
       <c r="NW3" t="n">
-        <v>0.004081408208632689</v>
+        <v>0.004081408209082337</v>
       </c>
       <c r="NX3" t="n">
-        <v>1.581324606236291e-05</v>
+        <v>1.581324606093218e-05</v>
       </c>
       <c r="NY3" t="n">
-        <v>0.02221851972670207</v>
+        <v>0.02221851972452991</v>
       </c>
       <c r="NZ3" t="n">
-        <v>66392.36250326909</v>
+        <v>66392.36246616</v>
       </c>
       <c r="OA3" t="n">
-        <v>0.941667630194427</v>
+        <v>0.9416676297725215</v>
       </c>
       <c r="OB3" t="n">
-        <v>0.941667630194427</v>
+        <v>0.9416676297725215</v>
       </c>
       <c r="OC3" t="n">
-        <v>301384.774280909</v>
+        <v>301384.774261461</v>
       </c>
       <c r="OD3" t="n">
-        <v>371889.8658593048</v>
+        <v>371889.8658320382</v>
       </c>
       <c r="OE3" t="n">
-        <v>3807.976748285308</v>
+        <v>3807.976748334706</v>
       </c>
       <c r="OF3" t="n">
-        <v>716.1922605920033</v>
+        <v>716.1922605913956</v>
       </c>
       <c r="OG3" t="n">
-        <v>1004.665486152365</v>
+        <v>1004.665486151339</v>
       </c>
       <c r="OH3" t="n">
-        <v>314.3824840577139</v>
+        <v>314.3824840402593</v>
       </c>
       <c r="OI3" t="n">
-        <v>0.9993178167726409</v>
+        <v>0.9993178167726708</v>
       </c>
       <c r="OJ3" t="n">
-        <v>1.581324606236291e-05</v>
+        <v>1.581324606093218e-05</v>
       </c>
       <c r="OK3" t="n">
-        <v>0.02221851972670207</v>
+        <v>0.02221851972452991</v>
       </c>
       <c r="OL3" t="n">
-        <v>269.7715080765349</v>
+        <v>269.771507979208</v>
       </c>
       <c r="OM3" t="n">
-        <v>91901.75170409505</v>
+        <v>91901.75157250656</v>
       </c>
       <c r="ON3" t="n">
-        <v>1.187480174501135</v>
+        <v>1.187480173229703</v>
       </c>
       <c r="OO3" t="n">
-        <v>318523.7609755293</v>
+        <v>318523.7609059914</v>
       </c>
       <c r="OP3" t="n">
-        <v>395916.001854585</v>
+        <v>395916.0017570977</v>
       </c>
       <c r="OQ3" t="n">
-        <v>3807.97674827665</v>
+        <v>3807.976748326048</v>
       </c>
       <c r="OR3" t="n">
-        <v>-631367.6282483864</v>
+        <v>-631367.6279885815</v>
       </c>
       <c r="OS3" t="n">
-        <v>716.8170544752498</v>
+        <v>716.8170544720841</v>
       </c>
       <c r="OT3" t="n">
-        <v>1005.445398283666</v>
+        <v>1005.445398279592</v>
       </c>
       <c r="OU3" t="n">
-        <v>1.402652729879185</v>
+        <v>1.402652729879696</v>
       </c>
       <c r="OV3" t="n">
-        <v>0.9994132707885097</v>
+        <v>0.9994132707881436</v>
       </c>
       <c r="OW3" t="n">
-        <v>329.3798013218187</v>
+        <v>329.3798012623409</v>
       </c>
       <c r="OX3" t="n">
-        <v>128830.9751643174</v>
+        <v>128830.9749798512</v>
       </c>
       <c r="OY3" t="n">
-        <v>7.762108442667226e-06</v>
+        <v>7.762108453781378e-06</v>
       </c>
       <c r="OZ3" t="n">
-        <v>91848.0907069664</v>
+        <v>91848.09057542047</v>
       </c>
       <c r="PA3" t="n">
-        <v>1.088754259672546e-05</v>
+        <v>1.088754261231872e-05</v>
       </c>
       <c r="PB3" t="n">
-        <v>0.003719200282730158</v>
+        <v>0.003719200284067478</v>
       </c>
       <c r="PC3" t="n">
-        <v>1.704731315014532e-05</v>
+        <v>1.704731314522507e-05</v>
       </c>
       <c r="PD3" t="n">
-        <v>0.02409808134324337</v>
+        <v>0.0240980813357178</v>
       </c>
       <c r="PE3" t="n">
-        <v>91901.75170409505</v>
+        <v>91901.75157250656</v>
       </c>
       <c r="PF3" t="n">
-        <v>1.187480174501135</v>
+        <v>1.187480173229703</v>
       </c>
       <c r="PG3" t="n">
-        <v>1.187480174501135</v>
+        <v>1.187480173229703</v>
       </c>
       <c r="PH3" t="n">
-        <v>318523.7609755293</v>
+        <v>318523.7609059914</v>
       </c>
       <c r="PI3" t="n">
-        <v>395916.001854585</v>
+        <v>395916.0017570977</v>
       </c>
       <c r="PJ3" t="n">
-        <v>3807.97674827665</v>
+        <v>3807.976748326048</v>
       </c>
       <c r="PK3" t="n">
-        <v>716.8170544752498</v>
+        <v>716.8170544720841</v>
       </c>
       <c r="PL3" t="n">
-        <v>1005.445398283666</v>
+        <v>1005.445398279592</v>
       </c>
       <c r="PM3" t="n">
-        <v>329.3798013218187</v>
+        <v>329.3798012623409</v>
       </c>
       <c r="PN3" t="n">
-        <v>0.9994132707885097</v>
+        <v>0.9994132707881436</v>
       </c>
       <c r="PO3" t="n">
-        <v>1.704731315014532e-05</v>
+        <v>1.704731314522507e-05</v>
       </c>
       <c r="PP3" t="n">
-        <v>0.02409808134324337</v>
+        <v>0.0240980813357178</v>
       </c>
       <c r="PQ3" t="n">
-        <v>0.4576530307468343</v>
+        <v>0.4576530298661308</v>
       </c>
       <c r="PR3" t="n">
-        <v>0.8462232086477057</v>
+        <v>0.846223207282265</v>
       </c>
       <c r="PS3" t="n">
-        <v>377505.5359346577</v>
+        <v>377505.5353089689</v>
       </c>
       <c r="PT3" t="n">
-        <v>2.701669619738242</v>
+        <v>2.701669617770385</v>
       </c>
       <c r="PU3" t="n">
-        <v>382253.4278895655</v>
+        <v>382253.4277918774</v>
       </c>
       <c r="PV3" t="n">
-        <v>0.02714521505766466</v>
+        <v>0.02714521515807734</v>
       </c>
       <c r="PW3" t="n">
         <v>0</v>
       </c>
       <c r="PX3" t="n">
-        <v>0.0138920314461195</v>
+        <v>0.01389203144459183</v>
       </c>
       <c r="PY3" t="n">
-        <v>0.07971792753618642</v>
+        <v>0.07971792776279987</v>
       </c>
       <c r="PZ3" t="n">
-        <v>0.04153273179571772</v>
+        <v>0.04153273190090934</v>
       </c>
       <c r="QA3" t="n">
-        <v>0.1622879058356883</v>
+        <v>0.1622879062663784</v>
       </c>
       <c r="QB3" t="n">
-        <v>-1.153079021154468e-10</v>
+        <v>-6.787950757036754e-11</v>
       </c>
       <c r="QC3" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01760661584873649</v>
+        <v>0.01760661569108142</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -8145,25 +8145,25 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04914148723581423</v>
+        <v>0.04914148720070381</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08202817162379386</v>
+        <v>0.08202817143102836</v>
       </c>
       <c r="H2" t="n">
-        <v>3.222699884730673e-13</v>
+        <v>1.942584981762252e-12</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>80.71248350779426</v>
+        <v>80.71248351302775</v>
       </c>
       <c r="K2" t="n">
-        <v>80.71248350779426</v>
+        <v>80.71248351302775</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -8172,10 +8172,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>80.71248350779426</v>
+        <v>80.71248351302775</v>
       </c>
       <c r="O2" t="n">
-        <v>80.71248350779426</v>
+        <v>80.71248351302775</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8184,295 +8184,295 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>292.3522750145908</v>
+        <v>292.3522750141695</v>
       </c>
       <c r="S2" t="n">
-        <v>132772.1796841962</v>
+        <v>132772.1796835278</v>
       </c>
       <c r="T2" t="n">
-        <v>1.58293274700087</v>
+        <v>1.582932746995187</v>
       </c>
       <c r="U2" t="n">
-        <v>334649.8439824012</v>
+        <v>334649.8439820999</v>
       </c>
       <c r="V2" t="n">
-        <v>418527.1785916923</v>
+        <v>418527.1785912697</v>
       </c>
       <c r="W2" t="n">
-        <v>3782.917347723462</v>
+        <v>3782.91734772346</v>
       </c>
       <c r="X2" t="n">
-        <v>-687417.3142074237</v>
+        <v>-687417.314206252</v>
       </c>
       <c r="Y2" t="n">
-        <v>717.7129007517449</v>
+        <v>717.7129007517257</v>
       </c>
       <c r="Z2" t="n">
-        <v>1006.647652845948</v>
+        <v>1006.647652845926</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.402577063602406</v>
+        <v>1.402577063602413</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.9994979633405106</v>
+        <v>0.9994979633405076</v>
       </c>
       <c r="AC2" t="n">
-        <v>342.9081100795064</v>
+        <v>342.9081100792591</v>
       </c>
       <c r="AD2" t="n">
-        <v>186130.6856007173</v>
+        <v>186130.6855997806</v>
       </c>
       <c r="AE2" t="n">
-        <v>5.372569261068396e-06</v>
+        <v>5.372569261095435e-06</v>
       </c>
       <c r="AF2" t="n">
-        <v>132706.2094703414</v>
+        <v>132706.209469673</v>
       </c>
       <c r="AG2" t="n">
-        <v>7.535442418189862e-06</v>
+        <v>7.535442418227818e-06</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.003433462124707137</v>
+        <v>0.003433462124712077</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.817140103498527e-05</v>
+        <v>1.817140103496466e-05</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.02582429250873776</v>
+        <v>0.02582429250870601</v>
       </c>
       <c r="AK2" t="n">
-        <v>132772.1796841962</v>
+        <v>132772.1796835278</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.58293274700087</v>
+        <v>1.582932746995187</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.58293274700087</v>
+        <v>1.582932746995187</v>
       </c>
       <c r="AN2" t="n">
-        <v>334649.8439824012</v>
+        <v>334649.8439820999</v>
       </c>
       <c r="AO2" t="n">
-        <v>418527.1785916923</v>
+        <v>418527.1785912697</v>
       </c>
       <c r="AP2" t="n">
-        <v>3782.917347723462</v>
+        <v>3782.91734772346</v>
       </c>
       <c r="AQ2" t="n">
-        <v>717.7129007517449</v>
+        <v>717.7129007517257</v>
       </c>
       <c r="AR2" t="n">
-        <v>1006.647652845948</v>
+        <v>1006.647652845926</v>
       </c>
       <c r="AS2" t="n">
-        <v>342.9081100795064</v>
+        <v>342.9081100792591</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.9994979633405106</v>
+        <v>0.9994979633405076</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.817140103498527e-05</v>
+        <v>1.817140103496466e-05</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.02582429250873776</v>
+        <v>0.02582429250870601</v>
       </c>
       <c r="AW2" t="n">
-        <v>295.5999999999887</v>
+        <v>295.6000000001888</v>
       </c>
       <c r="AX2" t="n">
-        <v>137999.9999950273</v>
+        <v>137999.9999953536</v>
       </c>
       <c r="AY2" t="n">
-        <v>1.627145819753704</v>
+        <v>1.627145819756448</v>
       </c>
       <c r="AZ2" t="n">
-        <v>336973.3475828231</v>
+        <v>336973.3475829663</v>
       </c>
       <c r="BA2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="BB2" t="n">
         <v>3782.917347723355</v>
       </c>
       <c r="BC2" t="n">
-        <v>-696445.9368984912</v>
+        <v>-696445.9368990478</v>
       </c>
       <c r="BD2" t="n">
-        <v>717.8632360362508</v>
+        <v>717.8632360362602</v>
       </c>
       <c r="BE2" t="n">
-        <v>1006.821582550244</v>
+        <v>1006.821582550254</v>
       </c>
       <c r="BF2" t="n">
-        <v>1.402525623278194</v>
+        <v>1.40252562327819</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.9995210660216013</v>
+        <v>0.9995210660216027</v>
       </c>
       <c r="BH2" t="n">
-        <v>344.8092213939905</v>
+        <v>344.8092213941073</v>
       </c>
       <c r="BI2" t="n">
-        <v>193456.8974367851</v>
+        <v>193456.8974372425</v>
       </c>
       <c r="BJ2" t="n">
-        <v>5.169110087309059e-06</v>
+        <v>5.169110087296838e-06</v>
       </c>
       <c r="BK2" t="n">
-        <v>137934.6617458643</v>
+        <v>137934.6617461907</v>
       </c>
       <c r="BL2" t="n">
-        <v>7.249809346996735e-06</v>
+        <v>7.249809346979579e-06</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.003395798695746383</v>
+        <v>0.003395798695744087</v>
       </c>
       <c r="BN2" t="n">
-        <v>1.832995174011631e-05</v>
+        <v>1.832995174012606e-05</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.02606863419705883</v>
+        <v>0.02606863419707387</v>
       </c>
       <c r="BP2" t="n">
-        <v>137999.9999950273</v>
+        <v>137999.9999953536</v>
       </c>
       <c r="BQ2" t="n">
-        <v>1.627145819753704</v>
+        <v>1.627145819756448</v>
       </c>
       <c r="BR2" t="n">
-        <v>1.627145819753704</v>
+        <v>1.627145819756448</v>
       </c>
       <c r="BS2" t="n">
-        <v>336973.3475828231</v>
+        <v>336973.3475829663</v>
       </c>
       <c r="BT2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="BU2" t="n">
         <v>3782.917347723355</v>
       </c>
       <c r="BV2" t="n">
-        <v>717.8632360362508</v>
+        <v>717.8632360362602</v>
       </c>
       <c r="BW2" t="n">
-        <v>1006.821582550244</v>
+        <v>1006.821582550254</v>
       </c>
       <c r="BX2" t="n">
-        <v>344.8092213939905</v>
+        <v>344.8092213941073</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.9995210660216013</v>
+        <v>0.9995210660216027</v>
       </c>
       <c r="BZ2" t="n">
-        <v>1.832995174011631e-05</v>
+        <v>1.832995174012606e-05</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.02606863419705883</v>
+        <v>0.02606863419707387</v>
       </c>
       <c r="CB2" t="n">
-        <v>295.5999999999887</v>
+        <v>295.6000000001888</v>
       </c>
       <c r="CC2" t="n">
-        <v>137999.9999950273</v>
+        <v>137999.9999953536</v>
       </c>
       <c r="CD2" t="n">
-        <v>1.627145819753704</v>
+        <v>1.627145819756448</v>
       </c>
       <c r="CE2" t="n">
-        <v>336973.3475828231</v>
+        <v>336973.3475829663</v>
       </c>
       <c r="CF2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="CG2" t="n">
         <v>3782.917347723355</v>
       </c>
       <c r="CH2" t="n">
-        <v>-696445.9368984912</v>
+        <v>-696445.9368990478</v>
       </c>
       <c r="CI2" t="n">
-        <v>717.8632360362508</v>
+        <v>717.8632360362602</v>
       </c>
       <c r="CJ2" t="n">
-        <v>1006.821582550244</v>
+        <v>1006.821582550254</v>
       </c>
       <c r="CK2" t="n">
-        <v>1.402525623278194</v>
+        <v>1.40252562327819</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.9995210660216013</v>
+        <v>0.9995210660216027</v>
       </c>
       <c r="CM2" t="n">
-        <v>344.8092213939905</v>
+        <v>344.8092213941073</v>
       </c>
       <c r="CN2" t="n">
-        <v>193456.8974367851</v>
+        <v>193456.8974372425</v>
       </c>
       <c r="CO2" t="n">
-        <v>5.169110087309059e-06</v>
+        <v>5.169110087296838e-06</v>
       </c>
       <c r="CP2" t="n">
-        <v>137934.6617458643</v>
+        <v>137934.6617461907</v>
       </c>
       <c r="CQ2" t="n">
-        <v>7.249809346996735e-06</v>
+        <v>7.249809346979579e-06</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.003395798695746383</v>
+        <v>0.003395798695744087</v>
       </c>
       <c r="CS2" t="n">
-        <v>1.832995174011631e-05</v>
+        <v>1.832995174012606e-05</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.02606863419705883</v>
+        <v>0.02606863419707387</v>
       </c>
       <c r="CU2" t="n">
-        <v>137999.9999950273</v>
+        <v>137999.9999953536</v>
       </c>
       <c r="CV2" t="n">
-        <v>1.627145819753704</v>
+        <v>1.627145819756448</v>
       </c>
       <c r="CW2" t="n">
-        <v>1.627145819753704</v>
+        <v>1.627145819756448</v>
       </c>
       <c r="CX2" t="n">
-        <v>336973.3475828231</v>
+        <v>336973.3475829663</v>
       </c>
       <c r="CY2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="CZ2" t="n">
         <v>3782.917347723355</v>
       </c>
       <c r="DA2" t="n">
-        <v>717.8632360362508</v>
+        <v>717.8632360362602</v>
       </c>
       <c r="DB2" t="n">
-        <v>1006.821582550244</v>
+        <v>1006.821582550254</v>
       </c>
       <c r="DC2" t="n">
-        <v>344.8092213939905</v>
+        <v>344.8092213941073</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.9995210660216013</v>
+        <v>0.9995210660216027</v>
       </c>
       <c r="DE2" t="n">
-        <v>1.832995174011631e-05</v>
+        <v>1.832995174012606e-05</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.02606863419705883</v>
+        <v>0.02606863419707387</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.2353764204908432</v>
+        <v>0.2353764205062751</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.2353764204908432</v>
+        <v>0.2353764205062751</v>
       </c>
       <c r="DI2" t="n">
-        <v>183929.9703432661</v>
+        <v>183929.9703547407</v>
       </c>
       <c r="DJ2" t="n">
-        <v>2.742859854054591</v>
+        <v>2.742859854222594</v>
       </c>
       <c r="DK2" t="n">
         <v>421784.4310885898</v>
@@ -8481,310 +8481,310 @@
         <v>0</v>
       </c>
       <c r="DM2" t="n">
-        <v>306.8418827945523</v>
+        <v>306.8418977538941</v>
       </c>
       <c r="DN2" t="n">
-        <v>125.3773380180998</v>
+        <v>125.3773441305719</v>
       </c>
       <c r="DO2" t="n">
-        <v>280.0579656935344</v>
+        <v>280.0579793470905</v>
       </c>
       <c r="DP2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DQ2" t="n">
-        <v>306.8418827945522</v>
+        <v>306.8418977538941</v>
       </c>
       <c r="DR2" t="n">
-        <v>125.3773380180998</v>
+        <v>125.3773441305719</v>
       </c>
       <c r="DS2" t="n">
-        <v>280.0579656935344</v>
+        <v>280.0579793470905</v>
       </c>
       <c r="DT2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DU2" t="n">
-        <v>248.6139905188914</v>
+        <v>248.6139859349479</v>
       </c>
       <c r="DV2" t="n">
-        <v>72670.29057421985</v>
+        <v>72670.28569121684</v>
       </c>
       <c r="DW2" t="n">
-        <v>1.019019591286718</v>
+        <v>1.019019541618002</v>
       </c>
       <c r="DX2" t="n">
-        <v>303394.531774557</v>
+        <v>303394.5285004083</v>
       </c>
       <c r="DY2" t="n">
-        <v>374708.4605700367</v>
+        <v>374708.4559799842</v>
       </c>
       <c r="DZ2" t="n">
-        <v>3793.461869090295</v>
+        <v>3793.46186990204</v>
       </c>
       <c r="EA2" t="n">
-        <v>-568399.2325857539</v>
+        <v>-568399.2199886027</v>
       </c>
       <c r="EB2" t="n">
-        <v>716.2663343616611</v>
+        <v>716.2663342609613</v>
       </c>
       <c r="EC2" t="n">
-        <v>1004.83237564016</v>
+        <v>1004.832375504296</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.4028753376154</v>
+        <v>1.402875337622946</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.9992923632833981</v>
+        <v>0.9992923632691331</v>
       </c>
       <c r="EF2" t="n">
-        <v>316.1865766950564</v>
+        <v>316.186573776433</v>
       </c>
       <c r="EG2" t="n">
-        <v>101875.4149748433</v>
+        <v>101875.4081285029</v>
       </c>
       <c r="EH2" t="n">
-        <v>9.815910936381814e-06</v>
+        <v>9.81591159604119e-06</v>
       </c>
       <c r="EI2" t="n">
-        <v>72619.00772167723</v>
+        <v>72619.00284106653</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1.377049936887934e-05</v>
+        <v>1.377050029437327e-05</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.004035765655947367</v>
+        <v>0.004035765730170977</v>
       </c>
       <c r="EL2" t="n">
-        <v>1.596159568558194e-05</v>
+        <v>1.596159544633212e-05</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.02244419809568921</v>
+        <v>0.02244419773235197</v>
       </c>
       <c r="EN2" t="n">
-        <v>72670.29057421985</v>
+        <v>72670.28569121684</v>
       </c>
       <c r="EO2" t="n">
-        <v>1.019019591286718</v>
+        <v>1.019019541618002</v>
       </c>
       <c r="EP2" t="n">
-        <v>1.019019591286718</v>
+        <v>1.019019541618002</v>
       </c>
       <c r="EQ2" t="n">
-        <v>303394.531774557</v>
+        <v>303394.5285004083</v>
       </c>
       <c r="ER2" t="n">
-        <v>374708.4605700367</v>
+        <v>374708.4559799842</v>
       </c>
       <c r="ES2" t="n">
-        <v>3793.461869090295</v>
+        <v>3793.46186990204</v>
       </c>
       <c r="ET2" t="n">
-        <v>716.2663343616611</v>
+        <v>716.2663342609613</v>
       </c>
       <c r="EU2" t="n">
-        <v>1004.83237564016</v>
+        <v>1004.832375504296</v>
       </c>
       <c r="EV2" t="n">
-        <v>316.1865766950564</v>
+        <v>316.186573776433</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.9992923632833981</v>
+        <v>0.9992923632691331</v>
       </c>
       <c r="EX2" t="n">
-        <v>1.596159568558194e-05</v>
+        <v>1.596159544633212e-05</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.02244419809568921</v>
+        <v>0.02244419773235197</v>
       </c>
       <c r="EZ2" t="n">
-        <v>295.588453739749</v>
+        <v>295.5884537388763</v>
       </c>
       <c r="FA2" t="n">
-        <v>133020.3590658786</v>
+        <v>133020.358689537</v>
       </c>
       <c r="FB2" t="n">
-        <v>1.568465982785549</v>
+        <v>1.56846597835066</v>
       </c>
       <c r="FC2" t="n">
-        <v>336975.2222656601</v>
+        <v>336975.2222658019</v>
       </c>
       <c r="FD2" t="n">
         <v>421784.4310886902</v>
       </c>
       <c r="FE2" t="n">
-        <v>3793.461869097727</v>
+        <v>3793.461869909473</v>
       </c>
       <c r="FF2" t="n">
-        <v>-699519.0971186052</v>
+        <v>-699519.0973552371</v>
       </c>
       <c r="FG2" t="n">
-        <v>717.8502656722453</v>
+        <v>717.8502656712651</v>
       </c>
       <c r="FH2" t="n">
-        <v>1006.739822665999</v>
+        <v>1006.73982265982</v>
       </c>
       <c r="FI2" t="n">
-        <v>1.402437069133376</v>
+        <v>1.402437069126683</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.9995380147655203</v>
+        <v>0.9995380147668022</v>
       </c>
       <c r="FK2" t="n">
-        <v>344.7973817660121</v>
+        <v>344.7973817651176</v>
       </c>
       <c r="FL2" t="n">
-        <v>186467.4461259093</v>
+        <v>186467.4455976989</v>
       </c>
       <c r="FM2" t="n">
-        <v>5.362866391835308e-06</v>
+        <v>5.362866407026816e-06</v>
       </c>
       <c r="FN2" t="n">
-        <v>132959.5817380493</v>
+        <v>132959.5813620463</v>
       </c>
       <c r="FO2" t="n">
-        <v>7.521082624719392e-06</v>
+        <v>7.521082645988632e-06</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.003395470178535801</v>
+        <v>0.003395470178510966</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1.832867335243941e-05</v>
+        <v>1.83286733523428e-05</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.02606617655001476</v>
+        <v>0.02606617654982905</v>
       </c>
       <c r="FS2" t="n">
-        <v>133020.3590658786</v>
+        <v>133020.358689537</v>
       </c>
       <c r="FT2" t="n">
-        <v>1.568465982785549</v>
+        <v>1.56846597835066</v>
       </c>
       <c r="FU2" t="n">
-        <v>1.568465982785549</v>
+        <v>1.56846597835066</v>
       </c>
       <c r="FV2" t="n">
-        <v>336975.2222656601</v>
+        <v>336975.2222658019</v>
       </c>
       <c r="FW2" t="n">
         <v>421784.4310886902</v>
       </c>
       <c r="FX2" t="n">
-        <v>3793.461869097727</v>
+        <v>3793.461869909473</v>
       </c>
       <c r="FY2" t="n">
-        <v>717.8502656722453</v>
+        <v>717.8502656712651</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1006.739822665999</v>
+        <v>1006.73982265982</v>
       </c>
       <c r="GA2" t="n">
-        <v>344.7973817660121</v>
+        <v>344.7973817651176</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.9995380147655203</v>
+        <v>0.9995380147668022</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.832867335243941e-05</v>
+        <v>1.83286733523428e-05</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.02606617655001476</v>
+        <v>0.02606617654982905</v>
       </c>
       <c r="GE2" t="n">
-        <v>295.588453739749</v>
+        <v>295.5884537388763</v>
       </c>
       <c r="GF2" t="n">
-        <v>133020.3590658786</v>
+        <v>133020.358689537</v>
       </c>
       <c r="GG2" t="n">
-        <v>1.568465982785549</v>
+        <v>1.56846597835066</v>
       </c>
       <c r="GH2" t="n">
-        <v>336975.2222656601</v>
+        <v>336975.2222658019</v>
       </c>
       <c r="GI2" t="n">
         <v>421784.4310886902</v>
       </c>
       <c r="GJ2" t="n">
-        <v>3793.461869097727</v>
+        <v>3793.461869909473</v>
       </c>
       <c r="GK2" t="n">
-        <v>-699519.0971186052</v>
+        <v>-699519.0973552371</v>
       </c>
       <c r="GL2" t="n">
-        <v>717.8502656722453</v>
+        <v>717.8502656712651</v>
       </c>
       <c r="GM2" t="n">
-        <v>1006.739822665999</v>
+        <v>1006.73982265982</v>
       </c>
       <c r="GN2" t="n">
-        <v>1.402437069133376</v>
+        <v>1.402437069126683</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.9995380147655203</v>
+        <v>0.9995380147668022</v>
       </c>
       <c r="GP2" t="n">
-        <v>344.7973817660121</v>
+        <v>344.7973817651176</v>
       </c>
       <c r="GQ2" t="n">
-        <v>186467.4461259093</v>
+        <v>186467.4455976989</v>
       </c>
       <c r="GR2" t="n">
-        <v>5.362866391835308e-06</v>
+        <v>5.362866407026816e-06</v>
       </c>
       <c r="GS2" t="n">
-        <v>132959.5817380493</v>
+        <v>132959.5813620463</v>
       </c>
       <c r="GT2" t="n">
-        <v>7.521082624719392e-06</v>
+        <v>7.521082645988632e-06</v>
       </c>
       <c r="GU2" t="n">
-        <v>0.003395470178535801</v>
+        <v>0.003395470178510966</v>
       </c>
       <c r="GV2" t="n">
-        <v>1.832867335243941e-05</v>
+        <v>1.83286733523428e-05</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.02606617655001476</v>
+        <v>0.02606617654982905</v>
       </c>
       <c r="GX2" t="n">
-        <v>133020.3590658786</v>
+        <v>133020.358689537</v>
       </c>
       <c r="GY2" t="n">
-        <v>1.568465982785549</v>
+        <v>1.56846597835066</v>
       </c>
       <c r="GZ2" t="n">
-        <v>1.568465982785549</v>
+        <v>1.56846597835066</v>
       </c>
       <c r="HA2" t="n">
-        <v>336975.2222656601</v>
+        <v>336975.2222658019</v>
       </c>
       <c r="HB2" t="n">
         <v>421784.4310886902</v>
       </c>
       <c r="HC2" t="n">
-        <v>3793.461869097727</v>
+        <v>3793.461869909473</v>
       </c>
       <c r="HD2" t="n">
-        <v>717.8502656722453</v>
+        <v>717.8502656712651</v>
       </c>
       <c r="HE2" t="n">
-        <v>1006.739822665999</v>
+        <v>1006.73982265982</v>
       </c>
       <c r="HF2" t="n">
-        <v>344.7973817660121</v>
+        <v>344.7973817651176</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.9995380147655203</v>
+        <v>0.9995380147668022</v>
       </c>
       <c r="HH2" t="n">
-        <v>1.832867335243941e-05</v>
+        <v>1.83286733523428e-05</v>
       </c>
       <c r="HI2" t="n">
-        <v>0.02606617655001476</v>
+        <v>0.02606617654982905</v>
       </c>
       <c r="HJ2" t="n">
-        <v>0.0179540785435474</v>
+        <v>0.01795407858969771</v>
       </c>
       <c r="HK2" t="n">
         <v>0</v>
@@ -8793,28 +8793,28 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="HM2" t="n">
-        <v>0.04927004793673323</v>
+        <v>0.04927004797608343</v>
       </c>
       <c r="HN2" t="n">
         <v>0</v>
       </c>
       <c r="HO2" t="n">
-        <v>0.08250419501952376</v>
+        <v>0.08250419510502427</v>
       </c>
       <c r="HP2" t="n">
-        <v>8.40278866057198e-06</v>
+        <v>8.402782888800031e-06</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.9704456337198765</v>
+        <v>0.9704456899895243</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.9704456337198762</v>
+        <v>0.9704456899895243</v>
       </c>
       <c r="HS2" t="n">
-        <v>512458.3884590305</v>
+        <v>512458.3961459205</v>
       </c>
       <c r="HT2" t="n">
-        <v>2.742849774785453</v>
+        <v>2.742849774815449</v>
       </c>
       <c r="HU2" t="n">
         <v>421784.4310885898</v>
@@ -8823,676 +8823,676 @@
         <v>0</v>
       </c>
       <c r="HW2" t="n">
-        <v>2102.618770875444</v>
+        <v>2102.618743675994</v>
       </c>
       <c r="HX2" t="n">
         <v>0</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.006917638226688668</v>
+        <v>0.006917638086660098</v>
       </c>
       <c r="HZ2" t="n">
         <v>0</v>
       </c>
       <c r="IA2" t="n">
-        <v>0.0193076871523381</v>
+        <v>0.01930768692059914</v>
       </c>
       <c r="IB2" t="n">
         <v>0</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.006003537939465903</v>
+        <v>0.006003537871698308</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.027014465759069</v>
+        <v>0.02701446546909256</v>
       </c>
       <c r="IE2" t="n">
         <v>0</v>
       </c>
       <c r="IF2" t="n">
-        <v>0.01388396196189312</v>
+        <v>0.01388396196493269</v>
       </c>
       <c r="IG2" t="n">
-        <v>0.07948208923126412</v>
+        <v>0.07948208846845778</v>
       </c>
       <c r="IH2" t="n">
-        <v>0.04125112751491547</v>
+        <v>0.04125112711910659</v>
       </c>
       <c r="II2" t="n">
-        <v>0.1616316444671417</v>
+        <v>0.1616316430215896</v>
       </c>
       <c r="IJ2" t="n">
-        <v>1.82960119277098e-10</v>
+        <v>6.542680286436564e-11</v>
       </c>
       <c r="IK2" t="n">
         <v>165.3032</v>
       </c>
       <c r="IL2" t="n">
-        <v>263.9934653364527</v>
+        <v>263.9934637094445</v>
       </c>
       <c r="IM2" t="n">
-        <v>108.955578394225</v>
+        <v>108.9555783736819</v>
       </c>
       <c r="IN2" t="n">
-        <v>240.4604576164837</v>
+        <v>240.4604558395544</v>
       </c>
       <c r="IO2" t="n">
-        <v>65.62413758290276</v>
+        <v>65.62413742779584</v>
       </c>
       <c r="IP2" t="n">
-        <v>132.3628778610174</v>
+        <v>132.362876835145</v>
       </c>
       <c r="IQ2" t="n">
-        <v>108.955578394225</v>
+        <v>108.9555783736819</v>
       </c>
       <c r="IR2" t="n">
-        <v>75.15725761648366</v>
+        <v>75.15725583955438</v>
       </c>
       <c r="IS2" t="n">
-        <v>34.59780467208118</v>
+        <v>34.59780404397572</v>
       </c>
       <c r="IT2" t="n">
-        <v>260.8261689870799</v>
+        <v>260.8261694158613</v>
       </c>
       <c r="IU2" t="n">
-        <v>86657.47156967118</v>
+        <v>86657.47210291823</v>
       </c>
       <c r="IV2" t="n">
-        <v>1.158210346282902</v>
+        <v>1.158210351504041</v>
       </c>
       <c r="IW2" t="n">
-        <v>312118.006452196</v>
+        <v>312118.0067585003</v>
       </c>
       <c r="IX2" t="n">
-        <v>386938.1562184151</v>
+        <v>386938.1566478409</v>
       </c>
       <c r="IY2" t="n">
-        <v>3790.988615770934</v>
+        <v>3790.988615652157</v>
       </c>
       <c r="IZ2" t="n">
-        <v>-601850.8811067507</v>
+        <v>-601850.8822718501</v>
       </c>
       <c r="JA2" t="n">
-        <v>716.5688793688437</v>
+        <v>716.5688793807437</v>
       </c>
       <c r="JB2" t="n">
-        <v>1005.231555301965</v>
+        <v>1005.231555317483</v>
       </c>
       <c r="JC2" t="n">
-        <v>1.402840095689582</v>
+        <v>1.40284009568794</v>
       </c>
       <c r="JD2" t="n">
-        <v>0.9993351898576411</v>
+        <v>0.9993351898592712</v>
       </c>
       <c r="JE2" t="n">
-        <v>323.8691149840997</v>
+        <v>323.8691152506529</v>
       </c>
       <c r="JF2" t="n">
-        <v>121486.0772905912</v>
+        <v>121486.0780382155</v>
       </c>
       <c r="JG2" t="n">
-        <v>8.231395912208352e-06</v>
+        <v>8.23139586155241e-06</v>
       </c>
       <c r="JH2" t="n">
-        <v>86600.08910771356</v>
+        <v>86600.0896407511</v>
       </c>
       <c r="JI2" t="n">
-        <v>1.154733222914119e-05</v>
+        <v>1.15473321580655e-05</v>
       </c>
       <c r="JJ2" t="n">
-        <v>0.003847284351159524</v>
+        <v>0.003847284344852617</v>
       </c>
       <c r="JK2" t="n">
-        <v>1.659305184140382e-05</v>
+        <v>1.659305186337096e-05</v>
       </c>
       <c r="JL2" t="n">
-        <v>0.02340512758876766</v>
+        <v>0.02340512762226589</v>
       </c>
       <c r="JM2" t="n">
-        <v>86657.47156967118</v>
+        <v>86657.47210291823</v>
       </c>
       <c r="JN2" t="n">
-        <v>1.158210346282902</v>
+        <v>1.158210351504041</v>
       </c>
       <c r="JO2" t="n">
-        <v>1.158210346282902</v>
+        <v>1.158210351504041</v>
       </c>
       <c r="JP2" t="n">
-        <v>312118.006452196</v>
+        <v>312118.0067585003</v>
       </c>
       <c r="JQ2" t="n">
-        <v>386938.1562184151</v>
+        <v>386938.1566478409</v>
       </c>
       <c r="JR2" t="n">
-        <v>3790.988615770934</v>
+        <v>3790.988615652157</v>
       </c>
       <c r="JS2" t="n">
-        <v>716.5688793688437</v>
+        <v>716.5688793807437</v>
       </c>
       <c r="JT2" t="n">
-        <v>1005.231555301965</v>
+        <v>1005.231555317483</v>
       </c>
       <c r="JU2" t="n">
-        <v>323.8691149840997</v>
+        <v>323.8691152506529</v>
       </c>
       <c r="JV2" t="n">
-        <v>0.9993351898576411</v>
+        <v>0.9993351898592712</v>
       </c>
       <c r="JW2" t="n">
-        <v>1.659305184140382e-05</v>
+        <v>1.659305186337096e-05</v>
       </c>
       <c r="JX2" t="n">
-        <v>0.02340512758876766</v>
+        <v>0.02340512762226589</v>
       </c>
       <c r="JY2" t="n">
-        <v>295.5911242361507</v>
+        <v>295.5911242361797</v>
       </c>
       <c r="JZ2" t="n">
-        <v>134171.9684735321</v>
+        <v>134171.9685289177</v>
       </c>
       <c r="KA2" t="n">
-        <v>1.582036722298477</v>
+        <v>1.582036722951679</v>
       </c>
       <c r="KB2" t="n">
-        <v>336974.7888203364</v>
+        <v>336974.7888202441</v>
       </c>
       <c r="KC2" t="n">
-        <v>421784.4310886897</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="KD2" t="n">
-        <v>3790.988615776158</v>
+        <v>3790.988615657382</v>
       </c>
       <c r="KE2" t="n">
-        <v>-698798.1558150337</v>
+        <v>-698798.1557801345</v>
       </c>
       <c r="KF2" t="n">
-        <v>717.8532654823323</v>
+        <v>717.8532654824722</v>
       </c>
       <c r="KG2" t="n">
-        <v>1006.758731674184</v>
+        <v>1006.75873167509</v>
       </c>
       <c r="KH2" t="n">
-        <v>1.402457549590909</v>
+        <v>1.402457549591898</v>
       </c>
       <c r="KI2" t="n">
-        <v>0.9995340929336428</v>
+        <v>0.999534092933453</v>
       </c>
       <c r="KJ2" t="n">
-        <v>344.8001192152279</v>
+        <v>344.8001192153018</v>
       </c>
       <c r="KK2" t="n">
-        <v>188083.7931459285</v>
+        <v>188083.7932236664</v>
       </c>
       <c r="KL2" t="n">
-        <v>5.316779203959006e-06</v>
+        <v>5.316779201761499e-06</v>
       </c>
       <c r="KM2" t="n">
-        <v>134110.1505716104</v>
+        <v>134110.1506269455</v>
       </c>
       <c r="KN2" t="n">
-        <v>7.45655713410025e-06</v>
+        <v>7.456557131023602e-06</v>
       </c>
       <c r="KO2" t="n">
-        <v>0.003395546168356591</v>
+        <v>0.0033955461683614</v>
       </c>
       <c r="KP2" t="n">
-        <v>1.832896897521851e-05</v>
+        <v>1.832896897522791e-05</v>
       </c>
       <c r="KQ2" t="n">
-        <v>0.02606674484505017</v>
+        <v>0.02606674484507009</v>
       </c>
       <c r="KR2" t="n">
-        <v>134171.9684735321</v>
+        <v>134171.9685289177</v>
       </c>
       <c r="KS2" t="n">
-        <v>1.582036722298477</v>
+        <v>1.582036722951679</v>
       </c>
       <c r="KT2" t="n">
-        <v>1.582036722298477</v>
+        <v>1.582036722951679</v>
       </c>
       <c r="KU2" t="n">
-        <v>336974.7888203364</v>
+        <v>336974.7888202441</v>
       </c>
       <c r="KV2" t="n">
-        <v>421784.4310886897</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="KW2" t="n">
-        <v>3790.988615776158</v>
+        <v>3790.988615657382</v>
       </c>
       <c r="KX2" t="n">
-        <v>717.8532654823323</v>
+        <v>717.8532654824722</v>
       </c>
       <c r="KY2" t="n">
-        <v>1006.758731674184</v>
+        <v>1006.75873167509</v>
       </c>
       <c r="KZ2" t="n">
-        <v>344.8001192152279</v>
+        <v>344.8001192153018</v>
       </c>
       <c r="LA2" t="n">
-        <v>0.9995340929336428</v>
+        <v>0.999534092933453</v>
       </c>
       <c r="LB2" t="n">
-        <v>1.832896897521851e-05</v>
+        <v>1.832896897522791e-05</v>
       </c>
       <c r="LC2" t="n">
-        <v>0.02606674484505017</v>
+        <v>0.02606674484507009</v>
       </c>
       <c r="LD2" t="n">
-        <v>269.5697205699719</v>
+        <v>269.569720863328</v>
       </c>
       <c r="LE2" t="n">
-        <v>97234.10270379587</v>
+        <v>97234.10311351047</v>
       </c>
       <c r="LF2" t="n">
-        <v>1.257366907743283</v>
+        <v>1.257366911671575</v>
       </c>
       <c r="LG2" t="n">
-        <v>318366.5951519773</v>
+        <v>318366.5953615594</v>
       </c>
       <c r="LH2" t="n">
-        <v>395698.1219362405</v>
+        <v>395698.122230073</v>
       </c>
       <c r="LI2" t="n">
-        <v>3790.988615770933</v>
+        <v>3790.988615652157</v>
       </c>
       <c r="LJ2" t="n">
-        <v>-626237.6199010747</v>
+        <v>-626237.6206873332</v>
       </c>
       <c r="LK2" t="n">
-        <v>716.8283699338305</v>
+        <v>716.8283699433319</v>
       </c>
       <c r="LL2" t="n">
-        <v>1005.551463574345</v>
+        <v>1005.551463586573</v>
       </c>
       <c r="LM2" t="n">
-        <v>1.40277855306866</v>
+        <v>1.402778553067124</v>
       </c>
       <c r="LN2" t="n">
-        <v>0.9993767605619339</v>
+        <v>0.9993767605631662</v>
       </c>
       <c r="LO2" t="n">
-        <v>329.2593859577881</v>
+        <v>329.2593861371739</v>
       </c>
       <c r="LP2" t="n">
-        <v>136313.3383623717</v>
+        <v>136313.3389367761</v>
       </c>
       <c r="LQ2" t="n">
-        <v>7.336039246149389e-06</v>
+        <v>7.336039215236398e-06</v>
       </c>
       <c r="LR2" t="n">
-        <v>97173.81126492016</v>
+        <v>97173.81167450263</v>
       </c>
       <c r="LS2" t="n">
-        <v>1.029083851896834e-05</v>
+        <v>1.0290838475593e-05</v>
       </c>
       <c r="LT2" t="n">
-        <v>0.003722730537296695</v>
+        <v>0.003722730533258426</v>
       </c>
       <c r="LU2" t="n">
-        <v>1.703796105948316e-05</v>
+        <v>1.703796107431948e-05</v>
       </c>
       <c r="LV2" t="n">
-        <v>0.02408445693845283</v>
+        <v>0.02408445696114378</v>
       </c>
       <c r="LW2" t="n">
-        <v>97234.10270379587</v>
+        <v>97234.10311351047</v>
       </c>
       <c r="LX2" t="n">
-        <v>1.257366907743283</v>
+        <v>1.257366911671575</v>
       </c>
       <c r="LY2" t="n">
-        <v>1.257366907743283</v>
+        <v>1.257366911671575</v>
       </c>
       <c r="LZ2" t="n">
-        <v>318366.5951519773</v>
+        <v>318366.5953615594</v>
       </c>
       <c r="MA2" t="n">
-        <v>395698.1219362405</v>
+        <v>395698.122230073</v>
       </c>
       <c r="MB2" t="n">
-        <v>3790.988615770933</v>
+        <v>3790.988615652157</v>
       </c>
       <c r="MC2" t="n">
-        <v>716.8283699338305</v>
+        <v>716.8283699433319</v>
       </c>
       <c r="MD2" t="n">
-        <v>1005.551463574345</v>
+        <v>1005.551463586573</v>
       </c>
       <c r="ME2" t="n">
-        <v>329.2593859577881</v>
+        <v>329.2593861371739</v>
       </c>
       <c r="MF2" t="n">
-        <v>0.9993767605619339</v>
+        <v>0.9993767605631662</v>
       </c>
       <c r="MG2" t="n">
-        <v>1.703796105948316e-05</v>
+        <v>1.703796107431948e-05</v>
       </c>
       <c r="MH2" t="n">
-        <v>0.02408445693845283</v>
+        <v>0.02408445696114378</v>
       </c>
       <c r="MI2" t="n">
-        <v>0.8151239285333317</v>
+        <v>0.8151239228388029</v>
       </c>
       <c r="MJ2" t="n">
-        <v>0.4086924987197859</v>
+        <v>0.4086924952158685</v>
       </c>
       <c r="MK2" t="n">
-        <v>240769.6728199227</v>
+        <v>240769.6717204738</v>
       </c>
       <c r="ML2" t="n">
-        <v>2.709176840012893</v>
+        <v>2.709176851714887</v>
       </c>
       <c r="MM2" t="n">
-        <v>382035.5479712206</v>
+        <v>382035.5482648527</v>
       </c>
       <c r="MN2" t="n">
         <v>165.3032</v>
       </c>
       <c r="MO2" t="n">
-        <v>162.4251351054632</v>
+        <v>162.4251331584836</v>
       </c>
       <c r="MP2" t="n">
-        <v>138.1172919369959</v>
+        <v>138.1172908588142</v>
       </c>
       <c r="MQ2" t="n">
-        <v>-85.47244106739095</v>
+        <v>-85.47243910976709</v>
       </c>
       <c r="MR2" t="n">
-        <v>-31.75086012318117</v>
+        <v>-31.75085973611128</v>
       </c>
       <c r="MS2" t="n">
-        <v>286.2949676204076</v>
+        <v>286.2949653855101</v>
       </c>
       <c r="MT2" t="n">
-        <v>138.1172919369959</v>
+        <v>138.1172908588142</v>
       </c>
       <c r="MU2" t="n">
-        <v>-250.7756410673909</v>
+        <v>-250.7756391097671</v>
       </c>
       <c r="MV2" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="MW2" t="n">
-        <v>228.6352350886383</v>
+        <v>228.6352360213936</v>
       </c>
       <c r="MX2" t="n">
-        <v>51079.99973935702</v>
+        <v>51080.00055870182</v>
       </c>
       <c r="MY2" t="n">
-        <v>0.7788691500378847</v>
+        <v>0.7788691593532461</v>
       </c>
       <c r="MZ2" t="n">
-        <v>289133.456877809</v>
+        <v>289133.4575437849</v>
       </c>
       <c r="NA2" t="n">
-        <v>354715.7176938556</v>
+        <v>354715.7186274275</v>
       </c>
       <c r="NB2" t="n">
-        <v>3810.753361981758</v>
+        <v>3810.753361463924</v>
       </c>
       <c r="NC2" t="n">
-        <v>-516556.7730876625</v>
+        <v>-516556.7755901958</v>
       </c>
       <c r="ND2" t="n">
-        <v>715.8948540802853</v>
+        <v>715.8948540938825</v>
       </c>
       <c r="NE2" t="n">
-        <v>1004.247084020688</v>
+        <v>1004.247084042401</v>
       </c>
       <c r="NF2" t="n">
-        <v>1.40278572795561</v>
+        <v>1.402785727959297</v>
       </c>
       <c r="NG2" t="n">
-        <v>0.9992795353172937</v>
+        <v>0.9992795353179399</v>
       </c>
       <c r="NH2" t="n">
-        <v>303.2023558546689</v>
+        <v>303.2023564737505</v>
       </c>
       <c r="NI2" t="n">
-        <v>71602.74058079181</v>
+        <v>71602.74172956691</v>
       </c>
       <c r="NJ2" t="n">
-        <v>1.396594588263931e-05</v>
+        <v>1.396594565857344e-05</v>
       </c>
       <c r="NK2" t="n">
-        <v>51043.24855453452</v>
+        <v>51043.24937332451</v>
       </c>
       <c r="NL2" t="n">
-        <v>1.959122956156683e-05</v>
+        <v>1.959122924730191e-05</v>
       </c>
       <c r="NM2" t="n">
-        <v>0.00438685393989179</v>
+        <v>0.004386853922053721</v>
       </c>
       <c r="NN2" t="n">
-        <v>1.490180081202416e-05</v>
+        <v>1.490180086228702e-05</v>
       </c>
       <c r="NO2" t="n">
-        <v>0.02083979150927564</v>
+        <v>0.0208397915850955</v>
       </c>
       <c r="NP2" t="n">
-        <v>51079.99973935702</v>
+        <v>51080.00055870182</v>
       </c>
       <c r="NQ2" t="n">
-        <v>0.7788691500378847</v>
+        <v>0.7788691593532461</v>
       </c>
       <c r="NR2" t="n">
-        <v>0.7788691500378847</v>
+        <v>0.7788691593532461</v>
       </c>
       <c r="NS2" t="n">
-        <v>289133.456877809</v>
+        <v>289133.4575437849</v>
       </c>
       <c r="NT2" t="n">
-        <v>354715.7176938556</v>
+        <v>354715.7186274275</v>
       </c>
       <c r="NU2" t="n">
-        <v>3810.753361981758</v>
+        <v>3810.753361463924</v>
       </c>
       <c r="NV2" t="n">
-        <v>715.8948540802853</v>
+        <v>715.8948540938825</v>
       </c>
       <c r="NW2" t="n">
-        <v>1004.247084020688</v>
+        <v>1004.247084042401</v>
       </c>
       <c r="NX2" t="n">
-        <v>303.2023558546689</v>
+        <v>303.2023564737505</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.9992795353172937</v>
+        <v>0.9992795353179399</v>
       </c>
       <c r="NZ2" t="n">
-        <v>1.490180081202416e-05</v>
+        <v>1.490180086228702e-05</v>
       </c>
       <c r="OA2" t="n">
-        <v>0.02083979150927564</v>
+        <v>0.0208397915850955</v>
       </c>
       <c r="OB2" t="n">
-        <v>241.8085211520247</v>
+        <v>241.8085217687557</v>
       </c>
       <c r="OC2" t="n">
-        <v>62112.35539154032</v>
+        <v>62112.35605637911</v>
       </c>
       <c r="OD2" t="n">
-        <v>0.8954656512959305</v>
+        <v>0.8954656585964483</v>
       </c>
       <c r="OE2" t="n">
-        <v>298543.4885189583</v>
+        <v>298543.4889592433</v>
       </c>
       <c r="OF2" t="n">
-        <v>367906.6799508691</v>
+        <v>367906.6805681029</v>
       </c>
       <c r="OG2" t="n">
-        <v>3810.753361974293</v>
+        <v>3810.753361456459</v>
       </c>
       <c r="OH2" t="n">
-        <v>-553565.9549832409</v>
+        <v>-553565.9565910004</v>
       </c>
       <c r="OI2" t="n">
-        <v>716.1111451585259</v>
+        <v>716.1111451706745</v>
       </c>
       <c r="OJ2" t="n">
-        <v>1004.545565212339</v>
+        <v>1004.545565230867</v>
       </c>
       <c r="OK2" t="n">
-        <v>1.402778845160917</v>
+        <v>1.402778845162993</v>
       </c>
       <c r="OL2" t="n">
-        <v>0.9993123068929753</v>
+        <v>0.9993123068935289</v>
       </c>
       <c r="OM2" t="n">
-        <v>311.8243815199301</v>
+        <v>311.8243819179909</v>
       </c>
       <c r="ON2" t="n">
-        <v>87070.10553998833</v>
+        <v>87070.10647214964</v>
       </c>
       <c r="OO2" t="n">
-        <v>1.14849981379744e-05</v>
+        <v>1.148499801501749e-05</v>
       </c>
       <c r="OP2" t="n">
-        <v>62069.73097744445</v>
+        <v>62069.73164186317</v>
       </c>
       <c r="OQ2" t="n">
-        <v>1.611091242466301e-05</v>
+        <v>1.611091225220549e-05</v>
       </c>
       <c r="OR2" t="n">
-        <v>0.004148320249016372</v>
+        <v>0.004148320238479622</v>
       </c>
       <c r="OS2" t="n">
-        <v>1.56039313262941e-05</v>
+        <v>1.560393135883773e-05</v>
       </c>
       <c r="OT2" t="n">
-        <v>0.02190110386390289</v>
+        <v>0.02190110391322304</v>
       </c>
       <c r="OU2" t="n">
-        <v>62112.35539154032</v>
+        <v>62112.35605637911</v>
       </c>
       <c r="OV2" t="n">
-        <v>0.8954656512959305</v>
+        <v>0.8954656585964483</v>
       </c>
       <c r="OW2" t="n">
-        <v>0.8954656512959305</v>
+        <v>0.8954656585964483</v>
       </c>
       <c r="OX2" t="n">
-        <v>298543.4885189583</v>
+        <v>298543.4889592433</v>
       </c>
       <c r="OY2" t="n">
-        <v>367906.6799508691</v>
+        <v>367906.6805681029</v>
       </c>
       <c r="OZ2" t="n">
-        <v>3810.753361974293</v>
+        <v>3810.753361456459</v>
       </c>
       <c r="PA2" t="n">
-        <v>716.1111451585259</v>
+        <v>716.1111451706745</v>
       </c>
       <c r="PB2" t="n">
-        <v>1004.545565212339</v>
+        <v>1004.545565230867</v>
       </c>
       <c r="PC2" t="n">
-        <v>311.8243815199301</v>
+        <v>311.8243819179909</v>
       </c>
       <c r="PD2" t="n">
-        <v>0.9993123068929753</v>
+        <v>0.9993123068935289</v>
       </c>
       <c r="PE2" t="n">
-        <v>1.56039313262941e-05</v>
+        <v>1.560393135883773e-05</v>
       </c>
       <c r="PF2" t="n">
-        <v>0.02190110386390289</v>
+        <v>0.02190110391322304</v>
       </c>
       <c r="PG2" t="n">
-        <v>269.5516158319235</v>
+        <v>269.5516161253951</v>
       </c>
       <c r="PH2" t="n">
-        <v>90760.58153627851</v>
+        <v>90760.5820447372</v>
       </c>
       <c r="PI2" t="n">
-        <v>1.173686218373276</v>
+        <v>1.173686223670252</v>
       </c>
       <c r="PJ2" t="n">
-        <v>318368.6107643046</v>
+        <v>318368.6109737181</v>
       </c>
       <c r="PK2" t="n">
-        <v>395698.1219364409</v>
+        <v>395698.1222300729</v>
       </c>
       <c r="PL2" t="n">
-        <v>3810.753361971085</v>
+        <v>3810.753361453252</v>
       </c>
       <c r="PM2" t="n">
-        <v>-631496.6043198</v>
+        <v>-631496.6050049332</v>
       </c>
       <c r="PN2" t="n">
-        <v>716.8072235446097</v>
+        <v>716.8072235544875</v>
       </c>
       <c r="PO2" t="n">
-        <v>1005.418959920892</v>
+        <v>1005.418959935487</v>
       </c>
       <c r="PP2" t="n">
-        <v>1.402635083599044</v>
+        <v>1.402635083600076</v>
       </c>
       <c r="PQ2" t="n">
-        <v>0.9994178347644005</v>
+        <v>0.9994178347647463</v>
       </c>
       <c r="PR2" t="n">
-        <v>329.244955820206</v>
+        <v>329.2449559996765</v>
       </c>
       <c r="PS2" t="n">
-        <v>127230.2162238994</v>
+        <v>127230.2169368093</v>
       </c>
       <c r="PT2" t="n">
-        <v>7.859768140613722e-06</v>
+        <v>7.859768096573038e-06</v>
       </c>
       <c r="PU2" t="n">
-        <v>90707.99505273844</v>
+        <v>90707.99556093631</v>
       </c>
       <c r="PV2" t="n">
-        <v>1.102438654297883e-05</v>
+        <v>1.102438648121394e-05</v>
       </c>
       <c r="PW2" t="n">
-        <v>0.003722110334125176</v>
+        <v>0.003722110330101844</v>
       </c>
       <c r="PX2" t="n">
-        <v>1.703606689699744e-05</v>
+        <v>1.703606691185551e-05</v>
       </c>
       <c r="PY2" t="n">
-        <v>0.0240807784361227</v>
+        <v>0.02408077845886053</v>
       </c>
       <c r="PZ2" t="n">
-        <v>90760.58153627851</v>
+        <v>90760.5820447372</v>
       </c>
       <c r="QA2" t="n">
-        <v>1.173686218373276</v>
+        <v>1.173686223670252</v>
       </c>
       <c r="QB2" t="n">
-        <v>1.173686218373276</v>
+        <v>1.173686223670252</v>
       </c>
       <c r="QC2" t="n">
-        <v>318368.6107643046</v>
+        <v>318368.6109737181</v>
       </c>
       <c r="QD2" t="n">
-        <v>395698.1219364409</v>
+        <v>395698.1222300729</v>
       </c>
       <c r="QE2" t="n">
-        <v>3810.753361971085</v>
+        <v>3810.753361453252</v>
       </c>
       <c r="QF2" t="n">
-        <v>716.8072235446097</v>
+        <v>716.8072235544875</v>
       </c>
       <c r="QG2" t="n">
-        <v>1005.418959920892</v>
+        <v>1005.418959935487</v>
       </c>
       <c r="QH2" t="n">
-        <v>329.244955820206</v>
+        <v>329.2449559996765</v>
       </c>
       <c r="QI2" t="n">
-        <v>0.9994178347644005</v>
+        <v>0.9994178347647463</v>
       </c>
       <c r="QJ2" t="n">
-        <v>1.703606689699744e-05</v>
+        <v>1.703606691185551e-05</v>
       </c>
       <c r="QK2" t="n">
-        <v>0.0240807784361227</v>
+        <v>0.02408077845886053</v>
       </c>
       <c r="QL2" t="n">
-        <v>0.02720806913735374</v>
+        <v>0.02720806893374346</v>
       </c>
       <c r="QM2" t="n">
         <v>0</v>
@@ -9501,55 +9501,55 @@
         <v>0.01389884222857662</v>
       </c>
       <c r="QO2" t="n">
-        <v>0.08021887387999599</v>
+        <v>0.08021887317690822</v>
       </c>
       <c r="QP2" t="n">
-        <v>0.04179126283786364</v>
+        <v>0.04179126244265481</v>
       </c>
       <c r="QQ2" t="n">
-        <v>0.16311704808379</v>
+        <v>0.1631170467818831</v>
       </c>
       <c r="QR2" t="n">
-        <v>2.373449464471156e-05</v>
+        <v>2.37345862396654e-05</v>
       </c>
       <c r="QS2" t="n">
-        <v>0.5356987898316888</v>
+        <v>0.5356987823165069</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.9442372794676922</v>
+        <v>0.9442372701687622</v>
       </c>
       <c r="QU2" t="n">
-        <v>389954.4439456579</v>
+        <v>389954.4442501718</v>
       </c>
       <c r="QV2" t="n">
-        <v>2.709150555726041</v>
+        <v>2.709150566979405</v>
       </c>
       <c r="QW2" t="n">
-        <v>382035.5479712206</v>
+        <v>382035.5482648527</v>
       </c>
       <c r="QX2" t="n">
         <v>0</v>
       </c>
       <c r="QY2" t="n">
-        <v>3749.900723363855</v>
+        <v>3749.900720455626</v>
       </c>
       <c r="QZ2" t="n">
-        <v>4.367164669273876</v>
+        <v>4.36716398848079</v>
       </c>
       <c r="RA2" t="n">
-        <v>0.009606699661035981</v>
+        <v>0.00960669962964018</v>
       </c>
       <c r="RB2" t="n">
         <v>0</v>
       </c>
       <c r="RC2" t="n">
-        <v>0.02826487728783171</v>
+        <v>0.02826487722759335</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.01466944400267673</v>
+        <v>0.01466944397144397</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.004937319651726911</v>
+        <v>0.004937319689669858</v>
       </c>
     </row>
     <row r="3">
@@ -9557,7 +9557,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0176236154688357</v>
+        <v>0.01762361550506033</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -9566,25 +9566,25 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04914564470857011</v>
+        <v>0.04914564471667305</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08204932871664894</v>
+        <v>0.08204932876097651</v>
       </c>
       <c r="H3" t="n">
-        <v>-3.525665870363071e-12</v>
+        <v>-9.014039514809724e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>80.71248350693904</v>
+        <v>80.71248350717134</v>
       </c>
       <c r="K3" t="n">
-        <v>80.71248350693904</v>
+        <v>80.71248350717134</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -9593,10 +9593,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>80.71248350693904</v>
+        <v>80.71248350717134</v>
       </c>
       <c r="O3" t="n">
-        <v>80.71248350693904</v>
+        <v>80.71248350717134</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -9605,97 +9605,97 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>292.3522750146595</v>
+        <v>292.3522750146408</v>
       </c>
       <c r="S3" t="n">
-        <v>132772.1796843057</v>
+        <v>132772.1796842756</v>
       </c>
       <c r="T3" t="n">
-        <v>1.582932747001803</v>
+        <v>1.582932747001546</v>
       </c>
       <c r="U3" t="n">
-        <v>334649.8439824504</v>
+        <v>334649.843982437</v>
       </c>
       <c r="V3" t="n">
-        <v>418527.1785917612</v>
+        <v>418527.1785917425</v>
       </c>
       <c r="W3" t="n">
-        <v>3782.917347723462</v>
+        <v>3782.917347723461</v>
       </c>
       <c r="X3" t="n">
-        <v>-687417.3142076149</v>
+        <v>-687417.3142075625</v>
       </c>
       <c r="Y3" t="n">
-        <v>717.7129007517478</v>
+        <v>717.712900751747</v>
       </c>
       <c r="Z3" t="n">
-        <v>1006.647652845951</v>
+        <v>1006.64765284595</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.402577063602405</v>
+        <v>1.402577063602406</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.999497963340511</v>
+        <v>0.9994979633405109</v>
       </c>
       <c r="AC3" t="n">
-        <v>342.9081100795468</v>
+        <v>342.9081100795358</v>
       </c>
       <c r="AD3" t="n">
-        <v>186130.6856008708</v>
+        <v>186130.6856008287</v>
       </c>
       <c r="AE3" t="n">
-        <v>5.372569261063966e-06</v>
+        <v>5.372569261065182e-06</v>
       </c>
       <c r="AF3" t="n">
-        <v>132706.209470451</v>
+        <v>132706.2094704209</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.535442418183643e-06</v>
+        <v>7.535442418185351e-06</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.003433462124706332</v>
+        <v>0.003433462124706551</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.817140103498863e-05</v>
+        <v>1.817140103498772e-05</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.02582429250874294</v>
+        <v>0.02582429250874152</v>
       </c>
       <c r="AK3" t="n">
-        <v>132772.1796843057</v>
+        <v>132772.1796842756</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.582932747001803</v>
+        <v>1.582932747001546</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.582932747001803</v>
+        <v>1.582932747001546</v>
       </c>
       <c r="AN3" t="n">
-        <v>334649.8439824504</v>
+        <v>334649.843982437</v>
       </c>
       <c r="AO3" t="n">
-        <v>418527.1785917612</v>
+        <v>418527.1785917425</v>
       </c>
       <c r="AP3" t="n">
-        <v>3782.917347723462</v>
+        <v>3782.917347723461</v>
       </c>
       <c r="AQ3" t="n">
-        <v>717.7129007517478</v>
+        <v>717.712900751747</v>
       </c>
       <c r="AR3" t="n">
-        <v>1006.647652845951</v>
+        <v>1006.64765284595</v>
       </c>
       <c r="AS3" t="n">
-        <v>342.9081100795468</v>
+        <v>342.9081100795358</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.999497963340511</v>
+        <v>0.9994979633405109</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.817140103498863e-05</v>
+        <v>1.817140103498772e-05</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.02582429250874294</v>
+        <v>0.02582429250874152</v>
       </c>
       <c r="AW3" t="n">
         <v>295.5999999999887</v>
@@ -9884,16 +9884,16 @@
         <v>0.02606863419705883</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.2353764204883215</v>
+        <v>0.2353764204890065</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.2353764204883215</v>
+        <v>0.2353764204890065</v>
       </c>
       <c r="DI3" t="n">
-        <v>183929.9703413916</v>
+        <v>183929.9703419003</v>
       </c>
       <c r="DJ3" t="n">
-        <v>2.742859854027144</v>
+        <v>2.742859854034593</v>
       </c>
       <c r="DK3" t="n">
         <v>421784.4310885898</v>
@@ -9902,310 +9902,310 @@
         <v>0</v>
       </c>
       <c r="DM3" t="n">
-        <v>306.8418892386037</v>
+        <v>306.841885999464</v>
       </c>
       <c r="DN3" t="n">
-        <v>125.3773406511759</v>
+        <v>125.3773393276449</v>
       </c>
       <c r="DO3" t="n">
-        <v>280.0579715750911</v>
+        <v>280.0579686186926</v>
       </c>
       <c r="DP3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DQ3" t="n">
-        <v>306.8418892386037</v>
+        <v>306.841885999464</v>
       </c>
       <c r="DR3" t="n">
-        <v>125.3773406511759</v>
+        <v>125.3773393276449</v>
       </c>
       <c r="DS3" t="n">
-        <v>280.0579715750911</v>
+        <v>280.0579686186926</v>
       </c>
       <c r="DT3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DU3" t="n">
-        <v>248.6139885442176</v>
+        <v>248.6139895367989</v>
       </c>
       <c r="DV3" t="n">
-        <v>72670.28847058136</v>
+        <v>72670.28952800325</v>
       </c>
       <c r="DW3" t="n">
-        <v>1.019019569888497</v>
+        <v>1.019019580644658</v>
       </c>
       <c r="DX3" t="n">
-        <v>303394.5303641177</v>
+        <v>303394.5310730831</v>
       </c>
       <c r="DY3" t="n">
-        <v>374708.4585927316</v>
+        <v>374708.4595866355</v>
       </c>
       <c r="DZ3" t="n">
-        <v>3793.461869440516</v>
+        <v>3793.461869264413</v>
       </c>
       <c r="EA3" t="n">
-        <v>-568399.227159279</v>
+        <v>-568399.229886913</v>
       </c>
       <c r="EB3" t="n">
-        <v>716.2663343182809</v>
+        <v>716.2663343400864</v>
       </c>
       <c r="EC3" t="n">
-        <v>1004.832375581629</v>
+        <v>1004.83237561105</v>
       </c>
       <c r="ED3" t="n">
-        <v>1.402875337618647</v>
+        <v>1.402875337617015</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.9992923632772543</v>
+        <v>0.9992923632803423</v>
       </c>
       <c r="EF3" t="n">
-        <v>316.1865754377702</v>
+        <v>316.1865760697524</v>
       </c>
       <c r="EG3" t="n">
-        <v>101875.4120253826</v>
+        <v>101875.4135079683</v>
       </c>
       <c r="EH3" t="n">
-        <v>9.815911220568579e-06</v>
+        <v>9.815911077718318e-06</v>
       </c>
       <c r="EI3" t="n">
-        <v>72619.00561906949</v>
+        <v>72619.00667597326</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1.377049976758982e-05</v>
+        <v>1.377049956717268e-05</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.004035765687921431</v>
+        <v>0.004035765671849483</v>
       </c>
       <c r="EL3" t="n">
-        <v>1.596159558251774e-05</v>
+        <v>1.596159563432356e-05</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.02244419793917053</v>
+        <v>0.02244419801784557</v>
       </c>
       <c r="EN3" t="n">
-        <v>72670.28847058136</v>
+        <v>72670.28952800325</v>
       </c>
       <c r="EO3" t="n">
-        <v>1.019019569888497</v>
+        <v>1.019019580644658</v>
       </c>
       <c r="EP3" t="n">
-        <v>1.019019569888497</v>
+        <v>1.019019580644658</v>
       </c>
       <c r="EQ3" t="n">
-        <v>303394.5303641177</v>
+        <v>303394.5310730831</v>
       </c>
       <c r="ER3" t="n">
-        <v>374708.4585927316</v>
+        <v>374708.4595866355</v>
       </c>
       <c r="ES3" t="n">
-        <v>3793.461869440516</v>
+        <v>3793.461869264413</v>
       </c>
       <c r="ET3" t="n">
-        <v>716.2663343182809</v>
+        <v>716.2663343400864</v>
       </c>
       <c r="EU3" t="n">
-        <v>1004.832375581629</v>
+        <v>1004.83237561105</v>
       </c>
       <c r="EV3" t="n">
-        <v>316.1865754377702</v>
+        <v>316.1865760697524</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.9992923632772543</v>
+        <v>0.9992923632803423</v>
       </c>
       <c r="EX3" t="n">
-        <v>1.596159558251774e-05</v>
+        <v>1.596159563432356e-05</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.02244419793917053</v>
+        <v>0.02244419801784557</v>
       </c>
       <c r="EZ3" t="n">
-        <v>295.5884537391723</v>
+        <v>295.5884537395618</v>
       </c>
       <c r="FA3" t="n">
-        <v>133020.3589031936</v>
+        <v>133020.3589851542</v>
       </c>
       <c r="FB3" t="n">
-        <v>1.568465980869497</v>
+        <v>1.568465981834275</v>
       </c>
       <c r="FC3" t="n">
-        <v>336975.222265578</v>
+        <v>336975.2222656906</v>
       </c>
       <c r="FD3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="FE3" t="n">
-        <v>3793.461869447949</v>
+        <v>3793.461869271845</v>
       </c>
       <c r="FF3" t="n">
-        <v>-699519.0972201398</v>
+        <v>-699519.097169362</v>
       </c>
       <c r="FG3" t="n">
-        <v>717.8502656718127</v>
+        <v>717.8502656720349</v>
       </c>
       <c r="FH3" t="n">
-        <v>1006.739822663322</v>
+        <v>1006.739822664674</v>
       </c>
       <c r="FI3" t="n">
-        <v>1.402437069130492</v>
+        <v>1.402437069131941</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.999538014766072</v>
+        <v>0.9995380147657953</v>
       </c>
       <c r="FK3" t="n">
-        <v>344.7973817655094</v>
+        <v>344.7973817658203</v>
       </c>
       <c r="FL3" t="n">
-        <v>186467.4458975753</v>
+        <v>186467.4460126093</v>
       </c>
       <c r="FM3" t="n">
-        <v>5.362866398402272e-06</v>
+        <v>5.362866395093853e-06</v>
       </c>
       <c r="FN3" t="n">
-        <v>132959.5815755103</v>
+        <v>132959.5816573974</v>
       </c>
       <c r="FO3" t="n">
-        <v>7.521082633913682e-06</v>
+        <v>7.521082629281599e-06</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.003395470178527383</v>
+        <v>0.003395470178530475</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1.832867335238798e-05</v>
+        <v>1.832867335241869e-05</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.02606617654991962</v>
+        <v>0.02606617654997493</v>
       </c>
       <c r="FS3" t="n">
-        <v>133020.3589031936</v>
+        <v>133020.3589851542</v>
       </c>
       <c r="FT3" t="n">
-        <v>1.568465980869497</v>
+        <v>1.568465981834275</v>
       </c>
       <c r="FU3" t="n">
-        <v>1.568465980869497</v>
+        <v>1.568465981834275</v>
       </c>
       <c r="FV3" t="n">
-        <v>336975.222265578</v>
+        <v>336975.2222656906</v>
       </c>
       <c r="FW3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="FX3" t="n">
-        <v>3793.461869447949</v>
+        <v>3793.461869271845</v>
       </c>
       <c r="FY3" t="n">
-        <v>717.8502656718127</v>
+        <v>717.8502656720349</v>
       </c>
       <c r="FZ3" t="n">
-        <v>1006.739822663322</v>
+        <v>1006.739822664674</v>
       </c>
       <c r="GA3" t="n">
-        <v>344.7973817655094</v>
+        <v>344.7973817658203</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.999538014766072</v>
+        <v>0.9995380147657953</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.832867335238798e-05</v>
+        <v>1.832867335241869e-05</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.02606617654991962</v>
+        <v>0.02606617654997493</v>
       </c>
       <c r="GE3" t="n">
-        <v>295.5884537391723</v>
+        <v>295.5884537395618</v>
       </c>
       <c r="GF3" t="n">
-        <v>133020.3589031936</v>
+        <v>133020.3589851542</v>
       </c>
       <c r="GG3" t="n">
-        <v>1.568465980869497</v>
+        <v>1.568465981834275</v>
       </c>
       <c r="GH3" t="n">
-        <v>336975.222265578</v>
+        <v>336975.2222656906</v>
       </c>
       <c r="GI3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="GJ3" t="n">
-        <v>3793.461869447949</v>
+        <v>3793.461869271845</v>
       </c>
       <c r="GK3" t="n">
-        <v>-699519.0972201398</v>
+        <v>-699519.097169362</v>
       </c>
       <c r="GL3" t="n">
-        <v>717.8502656718127</v>
+        <v>717.8502656720349</v>
       </c>
       <c r="GM3" t="n">
-        <v>1006.739822663322</v>
+        <v>1006.739822664674</v>
       </c>
       <c r="GN3" t="n">
-        <v>1.402437069130492</v>
+        <v>1.402437069131941</v>
       </c>
       <c r="GO3" t="n">
-        <v>0.999538014766072</v>
+        <v>0.9995380147657953</v>
       </c>
       <c r="GP3" t="n">
-        <v>344.7973817655094</v>
+        <v>344.7973817658203</v>
       </c>
       <c r="GQ3" t="n">
-        <v>186467.4458975753</v>
+        <v>186467.4460126093</v>
       </c>
       <c r="GR3" t="n">
-        <v>5.362866398402272e-06</v>
+        <v>5.362866395093853e-06</v>
       </c>
       <c r="GS3" t="n">
-        <v>132959.5815755103</v>
+        <v>132959.5816573974</v>
       </c>
       <c r="GT3" t="n">
-        <v>7.521082633913682e-06</v>
+        <v>7.521082629281599e-06</v>
       </c>
       <c r="GU3" t="n">
-        <v>0.003395470178527383</v>
+        <v>0.003395470178530475</v>
       </c>
       <c r="GV3" t="n">
-        <v>1.832867335238798e-05</v>
+        <v>1.832867335241869e-05</v>
       </c>
       <c r="GW3" t="n">
-        <v>0.02606617654991962</v>
+        <v>0.02606617654997493</v>
       </c>
       <c r="GX3" t="n">
-        <v>133020.3589031936</v>
+        <v>133020.3589851542</v>
       </c>
       <c r="GY3" t="n">
-        <v>1.568465980869497</v>
+        <v>1.568465981834275</v>
       </c>
       <c r="GZ3" t="n">
-        <v>1.568465980869497</v>
+        <v>1.568465981834275</v>
       </c>
       <c r="HA3" t="n">
-        <v>336975.222265578</v>
+        <v>336975.2222656906</v>
       </c>
       <c r="HB3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="HC3" t="n">
-        <v>3793.461869447949</v>
+        <v>3793.461869271845</v>
       </c>
       <c r="HD3" t="n">
-        <v>717.8502656718127</v>
+        <v>717.8502656720349</v>
       </c>
       <c r="HE3" t="n">
-        <v>1006.739822663322</v>
+        <v>1006.739822664674</v>
       </c>
       <c r="HF3" t="n">
-        <v>344.7973817655094</v>
+        <v>344.7973817658203</v>
       </c>
       <c r="HG3" t="n">
-        <v>0.999538014766072</v>
+        <v>0.9995380147657953</v>
       </c>
       <c r="HH3" t="n">
-        <v>1.832867335238798e-05</v>
+        <v>1.832867335241869e-05</v>
       </c>
       <c r="HI3" t="n">
-        <v>0.02606617654991962</v>
+        <v>0.02606617654997493</v>
       </c>
       <c r="HJ3" t="n">
-        <v>0.0179540785635117</v>
+        <v>0.01795407855348187</v>
       </c>
       <c r="HK3" t="n">
         <v>0</v>
@@ -10214,706 +10214,706 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="HM3" t="n">
-        <v>0.04927004795375586</v>
+        <v>0.04927004794520388</v>
       </c>
       <c r="HN3" t="n">
         <v>0</v>
       </c>
       <c r="HO3" t="n">
-        <v>0.08250419505651069</v>
+        <v>0.08250419503792888</v>
       </c>
       <c r="HP3" t="n">
-        <v>8.402793626946514e-06</v>
+        <v>8.402787806657819e-06</v>
       </c>
       <c r="HQ3" t="n">
-        <v>0.9704456579592968</v>
+        <v>0.9704456457752116</v>
       </c>
       <c r="HR3" t="n">
-        <v>0.9704456579592968</v>
+        <v>0.9704456457752116</v>
       </c>
       <c r="HS3" t="n">
-        <v>512458.3917691994</v>
+        <v>512458.3901054353</v>
       </c>
       <c r="HT3" t="n">
-        <v>2.74284977479198</v>
+        <v>2.742849774789297</v>
       </c>
       <c r="HU3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="HV3" t="n">
         <v>0</v>
       </c>
       <c r="HW3" t="n">
-        <v>2117.88408281724</v>
+        <v>2117.884092279186</v>
       </c>
       <c r="HX3" t="n">
         <v>0</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.006656965159640454</v>
+        <v>0.006656965200861428</v>
       </c>
       <c r="HZ3" t="n">
         <v>0</v>
       </c>
       <c r="IA3" t="n">
-        <v>0.01856377569923416</v>
+        <v>0.01856377577908761</v>
       </c>
       <c r="IB3" t="n">
         <v>0</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.005771737591672485</v>
+        <v>0.005771737615548419</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.02714521505766466</v>
+        <v>0.02714521515807734</v>
       </c>
       <c r="IE3" t="n">
         <v>0</v>
       </c>
       <c r="IF3" t="n">
-        <v>0.0138920314461195</v>
+        <v>0.01389203144459183</v>
       </c>
       <c r="IG3" t="n">
-        <v>0.07971792753618642</v>
+        <v>0.07971792776279987</v>
       </c>
       <c r="IH3" t="n">
-        <v>0.04153273179571772</v>
+        <v>0.04153273190090934</v>
       </c>
       <c r="II3" t="n">
-        <v>0.1622879058356883</v>
+        <v>0.1622879062663784</v>
       </c>
       <c r="IJ3" t="n">
-        <v>-1.153079021154468e-10</v>
+        <v>-6.787950757036754e-11</v>
       </c>
       <c r="IK3" t="n">
         <v>165.3032</v>
       </c>
       <c r="IL3" t="n">
-        <v>264.1672629310139</v>
+        <v>264.1672633078468</v>
       </c>
       <c r="IM3" t="n">
-        <v>108.959518729075</v>
+        <v>108.9595187352889</v>
       </c>
       <c r="IN3" t="n">
-        <v>240.6494672397838</v>
+        <v>240.6494676506298</v>
       </c>
       <c r="IO3" t="n">
-        <v>65.64027849601507</v>
+        <v>65.64027853154167</v>
       </c>
       <c r="IP3" t="n">
-        <v>132.4735321060043</v>
+        <v>132.47353234479</v>
       </c>
       <c r="IQ3" t="n">
-        <v>108.959518729075</v>
+        <v>108.9595187352889</v>
       </c>
       <c r="IR3" t="n">
-        <v>75.34626723978383</v>
+        <v>75.34626765062976</v>
       </c>
       <c r="IS3" t="n">
-        <v>34.66412858417826</v>
+        <v>34.66412872880294</v>
       </c>
       <c r="IT3" t="n">
-        <v>260.7802902221372</v>
+        <v>260.7802901229286</v>
       </c>
       <c r="IU3" t="n">
-        <v>86583.36963589724</v>
+        <v>86583.36951079837</v>
       </c>
       <c r="IV3" t="n">
-        <v>1.157423584615502</v>
+        <v>1.157423583383952</v>
       </c>
       <c r="IW3" t="n">
-        <v>312085.2739060523</v>
+        <v>312085.2738351861</v>
       </c>
       <c r="IX3" t="n">
-        <v>386892.2596861635</v>
+        <v>386892.2595868114</v>
       </c>
       <c r="IY3" t="n">
-        <v>3791.058035513175</v>
+        <v>3791.058035546658</v>
       </c>
       <c r="IZ3" t="n">
-        <v>-601740.9550639275</v>
+        <v>-601740.9547959061</v>
       </c>
       <c r="JA3" t="n">
-        <v>716.5675470238826</v>
+        <v>716.5675470211254</v>
       </c>
       <c r="JB3" t="n">
-        <v>1005.229517576136</v>
+        <v>1005.229517572508</v>
       </c>
       <c r="JC3" t="n">
-        <v>1.402839860319034</v>
+        <v>1.402839860319368</v>
       </c>
       <c r="JD3" t="n">
-        <v>0.9993351460154637</v>
+        <v>0.9993351460151009</v>
       </c>
       <c r="JE3" t="n">
-        <v>323.8405877762845</v>
+        <v>323.8405877146053</v>
       </c>
       <c r="JF3" t="n">
-        <v>121382.1667924646</v>
+        <v>121382.1666170713</v>
       </c>
       <c r="JG3" t="n">
-        <v>8.238442486446697e-06</v>
+        <v>8.238442498350983e-06</v>
       </c>
       <c r="JH3" t="n">
-        <v>86526.03210523253</v>
+        <v>86526.03198018449</v>
       </c>
       <c r="JI3" t="n">
-        <v>1.155721550693328e-05</v>
+        <v>1.155721552363585e-05</v>
       </c>
       <c r="JJ3" t="n">
-        <v>0.003847956674227651</v>
+        <v>0.003847956675687136</v>
       </c>
       <c r="JK3" t="n">
-        <v>1.659069868533991e-05</v>
+        <v>1.659069868025668e-05</v>
       </c>
       <c r="JL3" t="n">
-        <v>0.02340153699897077</v>
+        <v>0.02340153699121911</v>
       </c>
       <c r="JM3" t="n">
-        <v>86583.36963589724</v>
+        <v>86583.36951079837</v>
       </c>
       <c r="JN3" t="n">
-        <v>1.157423584615502</v>
+        <v>1.157423583383952</v>
       </c>
       <c r="JO3" t="n">
-        <v>1.157423584615502</v>
+        <v>1.157423583383952</v>
       </c>
       <c r="JP3" t="n">
-        <v>312085.2739060523</v>
+        <v>312085.2738351861</v>
       </c>
       <c r="JQ3" t="n">
-        <v>386892.2596861635</v>
+        <v>386892.2595868114</v>
       </c>
       <c r="JR3" t="n">
-        <v>3791.058035513175</v>
+        <v>3791.058035546658</v>
       </c>
       <c r="JS3" t="n">
-        <v>716.5675470238826</v>
+        <v>716.5675470211254</v>
       </c>
       <c r="JT3" t="n">
-        <v>1005.229517576136</v>
+        <v>1005.229517572508</v>
       </c>
       <c r="JU3" t="n">
-        <v>323.8405877762845</v>
+        <v>323.8405877146053</v>
       </c>
       <c r="JV3" t="n">
-        <v>0.9993351460154637</v>
+        <v>0.9993351460151009</v>
       </c>
       <c r="JW3" t="n">
-        <v>1.659069868533991e-05</v>
+        <v>1.659069868025668e-05</v>
       </c>
       <c r="JX3" t="n">
-        <v>0.02340153699897077</v>
+        <v>0.02340153699121911</v>
       </c>
       <c r="JY3" t="n">
-        <v>295.591048967496</v>
+        <v>295.5910489676523</v>
       </c>
       <c r="JZ3" t="n">
-        <v>134139.5092336557</v>
+        <v>134139.509214953</v>
       </c>
       <c r="KA3" t="n">
-        <v>1.581654219621127</v>
+        <v>1.58165421939966</v>
       </c>
       <c r="KB3" t="n">
-        <v>336974.8010380307</v>
+        <v>336974.801038181</v>
       </c>
       <c r="KC3" t="n">
-        <v>421784.4310883888</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="KD3" t="n">
-        <v>3791.058035511201</v>
+        <v>3791.058035551884</v>
       </c>
       <c r="KE3" t="n">
-        <v>-698818.3903250218</v>
+        <v>-698818.3903374389</v>
       </c>
       <c r="KF3" t="n">
-        <v>717.853180931691</v>
+        <v>717.853180931651</v>
       </c>
       <c r="KG3" t="n">
-        <v>1006.75819871289</v>
+        <v>1006.758198712589</v>
       </c>
       <c r="KH3" t="n">
-        <v>1.402456972338318</v>
+        <v>1.402456972337977</v>
       </c>
       <c r="KI3" t="n">
-        <v>0.999534203456139</v>
+        <v>0.9995342034562051</v>
       </c>
       <c r="KJ3" t="n">
-        <v>344.8000420522123</v>
+        <v>344.800042052284</v>
       </c>
       <c r="KK3" t="n">
-        <v>188038.2343409843</v>
+        <v>188038.2343147331</v>
       </c>
       <c r="KL3" t="n">
-        <v>5.318067378715236e-06</v>
+        <v>5.31806737945767e-06</v>
       </c>
       <c r="KM3" t="n">
-        <v>134077.7207784621</v>
+        <v>134077.7207597767</v>
       </c>
       <c r="KN3" t="n">
-        <v>7.458360674644146e-06</v>
+        <v>7.458360675683559e-06</v>
       </c>
       <c r="KO3" t="n">
-        <v>0.003395544026642426</v>
+        <v>0.003395544026638872</v>
       </c>
       <c r="KP3" t="n">
-        <v>1.83289606426075e-05</v>
+        <v>1.832896064261237e-05</v>
       </c>
       <c r="KQ3" t="n">
-        <v>0.02606672882650551</v>
+        <v>0.02606672882651117</v>
       </c>
       <c r="KR3" t="n">
-        <v>134139.5092336557</v>
+        <v>134139.509214953</v>
       </c>
       <c r="KS3" t="n">
-        <v>1.581654219621127</v>
+        <v>1.58165421939966</v>
       </c>
       <c r="KT3" t="n">
-        <v>1.581654219621127</v>
+        <v>1.58165421939966</v>
       </c>
       <c r="KU3" t="n">
-        <v>336974.8010380307</v>
+        <v>336974.801038181</v>
       </c>
       <c r="KV3" t="n">
-        <v>421784.4310883888</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="KW3" t="n">
-        <v>3791.058035511201</v>
+        <v>3791.058035551884</v>
       </c>
       <c r="KX3" t="n">
-        <v>717.853180931691</v>
+        <v>717.853180931651</v>
       </c>
       <c r="KY3" t="n">
-        <v>1006.75819871289</v>
+        <v>1006.758198712589</v>
       </c>
       <c r="KZ3" t="n">
-        <v>344.8000420522123</v>
+        <v>344.800042052284</v>
       </c>
       <c r="LA3" t="n">
-        <v>0.999534203456139</v>
+        <v>0.9995342034562051</v>
       </c>
       <c r="LB3" t="n">
-        <v>1.83289606426075e-05</v>
+        <v>1.832896064261237e-05</v>
       </c>
       <c r="LC3" t="n">
-        <v>0.02606672882650551</v>
+        <v>0.02606672882651117</v>
       </c>
       <c r="LD3" t="n">
-        <v>269.5384735244299</v>
+        <v>269.538473456814</v>
       </c>
       <c r="LE3" t="n">
-        <v>97171.30598696087</v>
+        <v>97171.30588808583</v>
       </c>
       <c r="LF3" t="n">
-        <v>1.256700543328971</v>
+        <v>1.256700542365811</v>
       </c>
       <c r="LG3" t="n">
-        <v>318344.3157939218</v>
+        <v>318344.3157456254</v>
       </c>
       <c r="LH3" t="n">
-        <v>395666.8780405778</v>
+        <v>395666.8779728647</v>
       </c>
       <c r="LI3" t="n">
-        <v>3791.058035512604</v>
+        <v>3791.058035553287</v>
       </c>
       <c r="LJ3" t="n">
-        <v>-626169.1178940134</v>
+        <v>-626169.1177163563</v>
       </c>
       <c r="LK3" t="n">
-        <v>716.8272970293368</v>
+        <v>716.8272970271333</v>
       </c>
       <c r="LL3" t="n">
-        <v>1005.549769727364</v>
+        <v>1005.549769724455</v>
       </c>
       <c r="LM3" t="n">
-        <v>1.402778289686436</v>
+        <v>1.40277828968669</v>
       </c>
       <c r="LN3" t="n">
-        <v>0.9993767516363871</v>
+        <v>0.9993767516361319</v>
       </c>
       <c r="LO3" t="n">
-        <v>329.2402679960094</v>
+        <v>329.240267954658</v>
       </c>
       <c r="LP3" t="n">
-        <v>136225.2758162756</v>
+        <v>136225.2756776509</v>
       </c>
       <c r="LQ3" t="n">
-        <v>7.340781613455354e-06</v>
+        <v>7.34078162092543e-06</v>
       </c>
       <c r="LR3" t="n">
-        <v>97111.05227236309</v>
+        <v>97111.05217352403</v>
       </c>
       <c r="LS3" t="n">
-        <v>1.029748907668454e-05</v>
+        <v>1.029748908716526e-05</v>
       </c>
       <c r="LT3" t="n">
-        <v>0.003723158142136382</v>
+        <v>0.003723158143066777</v>
       </c>
       <c r="LU3" t="n">
-        <v>1.703637781171938e-05</v>
+        <v>1.70363778082989e-05</v>
       </c>
       <c r="LV3" t="n">
-        <v>0.02408203317738416</v>
+        <v>0.02408203317215233</v>
       </c>
       <c r="LW3" t="n">
-        <v>97171.30598696087</v>
+        <v>97171.30588808583</v>
       </c>
       <c r="LX3" t="n">
-        <v>1.256700543328971</v>
+        <v>1.256700542365811</v>
       </c>
       <c r="LY3" t="n">
-        <v>1.256700543328971</v>
+        <v>1.256700542365811</v>
       </c>
       <c r="LZ3" t="n">
-        <v>318344.3157939218</v>
+        <v>318344.3157456254</v>
       </c>
       <c r="MA3" t="n">
-        <v>395666.8780405778</v>
+        <v>395666.8779728647</v>
       </c>
       <c r="MB3" t="n">
-        <v>3791.058035512604</v>
+        <v>3791.058035553287</v>
       </c>
       <c r="MC3" t="n">
-        <v>716.8272970293368</v>
+        <v>716.8272970271333</v>
       </c>
       <c r="MD3" t="n">
-        <v>1005.549769727364</v>
+        <v>1005.549769724455</v>
       </c>
       <c r="ME3" t="n">
-        <v>329.2402679960094</v>
+        <v>329.240267954658</v>
       </c>
       <c r="MF3" t="n">
-        <v>0.9993767516363871</v>
+        <v>0.9993767516361319</v>
       </c>
       <c r="MG3" t="n">
-        <v>1.703637781171938e-05</v>
+        <v>1.70363778082989e-05</v>
       </c>
       <c r="MH3" t="n">
-        <v>0.02408203317738416</v>
+        <v>0.02408203317215233</v>
       </c>
       <c r="MI3" t="n">
-        <v>0.8157324094085016</v>
+        <v>0.8157324107275045</v>
       </c>
       <c r="MJ3" t="n">
-        <v>0.4090701941213116</v>
+        <v>0.4090701949365791</v>
       </c>
       <c r="MK3" t="n">
-        <v>240841.4199741679</v>
+        <v>240841.4202258139</v>
       </c>
       <c r="ML3" t="n">
-        <v>2.707434430769569</v>
+        <v>2.707434428043141</v>
       </c>
       <c r="MM3" t="n">
-        <v>382004.3040754578</v>
+        <v>382004.3040077447</v>
       </c>
       <c r="MN3" t="n">
         <v>165.3032</v>
       </c>
       <c r="MO3" t="n">
-        <v>162.4026126579168</v>
+        <v>162.4026138584633</v>
       </c>
       <c r="MP3" t="n">
-        <v>138.1048193741389</v>
+        <v>138.1048200389965</v>
       </c>
       <c r="MQ3" t="n">
-        <v>-85.4497949895366</v>
+        <v>-85.44979619669977</v>
       </c>
       <c r="MR3" t="n">
-        <v>-31.74638182149846</v>
+        <v>-31.74638206025021</v>
       </c>
       <c r="MS3" t="n">
-        <v>286.2691140004211</v>
+        <v>286.2691153785643</v>
       </c>
       <c r="MT3" t="n">
-        <v>138.1048193741389</v>
+        <v>138.1048200389965</v>
       </c>
       <c r="MU3" t="n">
-        <v>-250.7529949895366</v>
+        <v>-250.7529961966998</v>
       </c>
       <c r="MV3" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="MW3" t="n">
-        <v>228.611365147772</v>
+        <v>228.6113646857654</v>
       </c>
       <c r="MX3" t="n">
-        <v>51046.43461229979</v>
+        <v>51046.43421240057</v>
       </c>
       <c r="MY3" t="n">
-        <v>0.7784384930894955</v>
+        <v>0.7784384885646642</v>
       </c>
       <c r="MZ3" t="n">
-        <v>289116.4507500295</v>
+        <v>289116.4504201455</v>
       </c>
       <c r="NA3" t="n">
-        <v>354691.875225385</v>
+        <v>354691.8747629517</v>
       </c>
       <c r="NB3" t="n">
-        <v>3810.837623485295</v>
+        <v>3810.837623709634</v>
       </c>
       <c r="NC3" t="n">
-        <v>-516508.9162360797</v>
+        <v>-516508.9149891669</v>
       </c>
       <c r="ND3" t="n">
-        <v>715.8944413334416</v>
+        <v>715.8944413267398</v>
       </c>
       <c r="NE3" t="n">
-        <v>1004.246141413861</v>
+        <v>1004.246141403287</v>
       </c>
       <c r="NF3" t="n">
-        <v>1.402785220043515</v>
+        <v>1.402785220041876</v>
       </c>
       <c r="NG3" t="n">
-        <v>0.9992796963664352</v>
+        <v>0.9992796963660356</v>
       </c>
       <c r="NH3" t="n">
-        <v>303.1865217719154</v>
+        <v>303.1865214652557</v>
       </c>
       <c r="NI3" t="n">
-        <v>71555.67530481503</v>
+        <v>71555.67474413246</v>
       </c>
       <c r="NJ3" t="n">
-        <v>1.397513189191731e-05</v>
+        <v>1.397513200142103e-05</v>
       </c>
       <c r="NK3" t="n">
-        <v>51009.71573010679</v>
+        <v>51009.71533047401</v>
       </c>
       <c r="NL3" t="n">
-        <v>1.960410846614037e-05</v>
+        <v>1.960410861972766e-05</v>
       </c>
       <c r="NM3" t="n">
-        <v>0.004387307248263445</v>
+        <v>0.004387307257102196</v>
       </c>
       <c r="NN3" t="n">
-        <v>1.49005124592623e-05</v>
+        <v>1.490051243436638e-05</v>
       </c>
       <c r="NO3" t="n">
-        <v>0.02083784587699043</v>
+        <v>0.02083784583943709</v>
       </c>
       <c r="NP3" t="n">
-        <v>51046.43461229979</v>
+        <v>51046.43421240057</v>
       </c>
       <c r="NQ3" t="n">
-        <v>0.7784384930894955</v>
+        <v>0.7784384885646642</v>
       </c>
       <c r="NR3" t="n">
-        <v>0.7784384930894955</v>
+        <v>0.7784384885646642</v>
       </c>
       <c r="NS3" t="n">
-        <v>289116.4507500295</v>
+        <v>289116.4504201455</v>
       </c>
       <c r="NT3" t="n">
-        <v>354691.875225385</v>
+        <v>354691.8747629517</v>
       </c>
       <c r="NU3" t="n">
-        <v>3810.837623485295</v>
+        <v>3810.837623709634</v>
       </c>
       <c r="NV3" t="n">
-        <v>715.8944413334416</v>
+        <v>715.8944413267398</v>
       </c>
       <c r="NW3" t="n">
-        <v>1004.246141413861</v>
+        <v>1004.246141403287</v>
       </c>
       <c r="NX3" t="n">
-        <v>303.1865217719154</v>
+        <v>303.1865214652557</v>
       </c>
       <c r="NY3" t="n">
-        <v>0.9992796963664352</v>
+        <v>0.9992796963660356</v>
       </c>
       <c r="NZ3" t="n">
-        <v>1.49005124592623e-05</v>
+        <v>1.490051243436638e-05</v>
       </c>
       <c r="OA3" t="n">
-        <v>0.02083784587699043</v>
+        <v>0.02083784583943709</v>
       </c>
       <c r="OB3" t="n">
-        <v>241.780997475195</v>
+        <v>241.7809972081513</v>
       </c>
       <c r="OC3" t="n">
-        <v>62069.49785123039</v>
+        <v>62069.49756350191</v>
       </c>
       <c r="OD3" t="n">
-        <v>0.8949495382598954</v>
+        <v>0.8949495350999533</v>
       </c>
       <c r="OE3" t="n">
-        <v>298523.874897889</v>
+        <v>298523.8747072461</v>
       </c>
       <c r="OF3" t="n">
-        <v>367879.1795242436</v>
+        <v>367879.1792569822</v>
       </c>
       <c r="OG3" t="n">
-        <v>3810.837623477613</v>
+        <v>3810.837623701953</v>
       </c>
       <c r="OH3" t="n">
-        <v>-553508.9422961755</v>
+        <v>-553508.9416000176</v>
       </c>
       <c r="OI3" t="n">
-        <v>716.1105458344643</v>
+        <v>716.1105458292071</v>
       </c>
       <c r="OJ3" t="n">
-        <v>1004.54438637146</v>
+        <v>1004.544386363441</v>
       </c>
       <c r="OK3" t="n">
-        <v>1.402778372996715</v>
+        <v>1.402778372995816</v>
       </c>
       <c r="OL3" t="n">
-        <v>0.9993124280494092</v>
+        <v>0.9993124280491704</v>
       </c>
       <c r="OM3" t="n">
-        <v>311.8066194532398</v>
+        <v>311.8066192808704</v>
       </c>
       <c r="ON3" t="n">
-        <v>87010.00824137265</v>
+        <v>87010.00783795265</v>
       </c>
       <c r="OO3" t="n">
-        <v>1.149293075833209e-05</v>
+        <v>1.149293081161881e-05</v>
       </c>
       <c r="OP3" t="n">
-        <v>62026.91024919044</v>
+        <v>62026.90996164378</v>
       </c>
       <c r="OQ3" t="n">
-        <v>1.612203471013699e-05</v>
+        <v>1.612203478487612e-05</v>
       </c>
       <c r="OR3" t="n">
-        <v>0.00414878781540568</v>
+        <v>0.004148787819969114</v>
       </c>
       <c r="OS3" t="n">
-        <v>1.560247681852218e-05</v>
+        <v>1.560247680443023e-05</v>
       </c>
       <c r="OT3" t="n">
-        <v>0.02189889751421046</v>
+        <v>0.02189889749285419</v>
       </c>
       <c r="OU3" t="n">
-        <v>62069.49785123039</v>
+        <v>62069.49756350191</v>
       </c>
       <c r="OV3" t="n">
-        <v>0.8949495382598954</v>
+        <v>0.8949495350999533</v>
       </c>
       <c r="OW3" t="n">
-        <v>0.8949495382598954</v>
+        <v>0.8949495350999533</v>
       </c>
       <c r="OX3" t="n">
-        <v>298523.874897889</v>
+        <v>298523.8747072461</v>
       </c>
       <c r="OY3" t="n">
-        <v>367879.1795242436</v>
+        <v>367879.1792569822</v>
       </c>
       <c r="OZ3" t="n">
-        <v>3810.837623477613</v>
+        <v>3810.837623701953</v>
       </c>
       <c r="PA3" t="n">
-        <v>716.1105458344643</v>
+        <v>716.1105458292071</v>
       </c>
       <c r="PB3" t="n">
-        <v>1004.54438637146</v>
+        <v>1004.544386363441</v>
       </c>
       <c r="PC3" t="n">
-        <v>311.8066194532398</v>
+        <v>311.8066192808704</v>
       </c>
       <c r="PD3" t="n">
-        <v>0.9993124280494092</v>
+        <v>0.9993124280491704</v>
       </c>
       <c r="PE3" t="n">
-        <v>1.560247681852218e-05</v>
+        <v>1.560247680443023e-05</v>
       </c>
       <c r="PF3" t="n">
-        <v>0.02189889751421046</v>
+        <v>0.02189889749285419</v>
       </c>
       <c r="PG3" t="n">
-        <v>269.5203631980771</v>
+        <v>269.5203631304084</v>
       </c>
       <c r="PH3" t="n">
-        <v>90697.27324185845</v>
+        <v>90697.27309162388</v>
       </c>
       <c r="PI3" t="n">
-        <v>1.173003512137064</v>
+        <v>1.173003510488407</v>
       </c>
       <c r="PJ3" t="n">
-        <v>318346.3309974261</v>
+        <v>318346.330949216</v>
       </c>
       <c r="PK3" t="n">
-        <v>395666.8780404775</v>
+        <v>395666.8779728647</v>
       </c>
       <c r="PL3" t="n">
-        <v>3810.837623474617</v>
+        <v>3810.837623698957</v>
       </c>
       <c r="PM3" t="n">
-        <v>-631431.4623272982</v>
+        <v>-631431.4621975009</v>
       </c>
       <c r="PN3" t="n">
-        <v>716.8061426320628</v>
+        <v>716.8061426296808</v>
       </c>
       <c r="PO3" t="n">
-        <v>1005.417218533148</v>
+        <v>1005.417218529109</v>
       </c>
       <c r="PP3" t="n">
-        <v>1.402634769341297</v>
+        <v>1.402634769340323</v>
       </c>
       <c r="PQ3" t="n">
-        <v>0.9994178566028232</v>
+        <v>0.9994178566029549</v>
       </c>
       <c r="PR3" t="n">
-        <v>329.2258381900845</v>
+        <v>329.2258381486827</v>
       </c>
       <c r="PS3" t="n">
-        <v>127141.4430993094</v>
+        <v>127141.4428886347</v>
       </c>
       <c r="PT3" t="n">
-        <v>7.865256014271491e-06</v>
+        <v>7.865256027304307e-06</v>
       </c>
       <c r="PU3" t="n">
-        <v>90644.72511188163</v>
+        <v>90644.72496174533</v>
       </c>
       <c r="PV3" t="n">
-        <v>1.103208155538795e-05</v>
+        <v>1.103208157366056e-05</v>
       </c>
       <c r="PW3" t="n">
-        <v>0.003722537602494975</v>
+        <v>0.003722537603418429</v>
       </c>
       <c r="PX3" t="n">
-        <v>1.703448319121857e-05</v>
+        <v>1.703448318778743e-05</v>
       </c>
       <c r="PY3" t="n">
-        <v>0.02407835373910268</v>
+        <v>0.02407835373384794</v>
       </c>
       <c r="PZ3" t="n">
-        <v>90697.27324185845</v>
+        <v>90697.27309162388</v>
       </c>
       <c r="QA3" t="n">
-        <v>1.173003512137064</v>
+        <v>1.173003510488407</v>
       </c>
       <c r="QB3" t="n">
-        <v>1.173003512137064</v>
+        <v>1.173003510488407</v>
       </c>
       <c r="QC3" t="n">
-        <v>318346.3309974261</v>
+        <v>318346.330949216</v>
       </c>
       <c r="QD3" t="n">
-        <v>395666.8780404775</v>
+        <v>395666.8779728647</v>
       </c>
       <c r="QE3" t="n">
-        <v>3810.837623474617</v>
+        <v>3810.837623698957</v>
       </c>
       <c r="QF3" t="n">
-        <v>716.8061426320628</v>
+        <v>716.8061426296808</v>
       </c>
       <c r="QG3" t="n">
-        <v>1005.417218533148</v>
+        <v>1005.417218529109</v>
       </c>
       <c r="QH3" t="n">
-        <v>329.2258381900845</v>
+        <v>329.2258381486827</v>
       </c>
       <c r="QI3" t="n">
-        <v>0.9994178566028232</v>
+        <v>0.9994178566029549</v>
       </c>
       <c r="QJ3" t="n">
-        <v>1.703448319121857e-05</v>
+        <v>1.703448318778743e-05</v>
       </c>
       <c r="QK3" t="n">
-        <v>0.02407835373910268</v>
+        <v>0.02407835373384794</v>
       </c>
       <c r="QL3" t="n">
-        <v>0.02723180802248039</v>
+        <v>0.02723180806369502</v>
       </c>
       <c r="QM3" t="n">
         <v>0</v>
@@ -10922,55 +10922,55 @@
         <v>0.01389884222857662</v>
       </c>
       <c r="QO3" t="n">
-        <v>0.08028856706167191</v>
+        <v>0.08028856723819885</v>
       </c>
       <c r="QP3" t="n">
-        <v>0.04183303515524012</v>
+        <v>0.04183303524641716</v>
       </c>
       <c r="QQ3" t="n">
-        <v>0.163252252467969</v>
+        <v>0.1632522527768877</v>
       </c>
       <c r="QR3" t="n">
-        <v>2.380848969754656e-05</v>
+        <v>2.380844799318438e-05</v>
       </c>
       <c r="QS3" t="n">
-        <v>0.5356524812144878</v>
+        <v>0.5356524857160385</v>
       </c>
       <c r="QT3" t="n">
-        <v>0.9442013197927674</v>
+        <v>0.944201325293314</v>
       </c>
       <c r="QU3" t="n">
-        <v>389737.3281942222</v>
+        <v>389737.3284562267</v>
       </c>
       <c r="QV3" t="n">
-        <v>2.707408083907027</v>
+        <v>2.707408081203544</v>
       </c>
       <c r="QW3" t="n">
-        <v>382004.3040754578</v>
+        <v>382004.3040077447</v>
       </c>
       <c r="QX3" t="n">
         <v>0</v>
       </c>
       <c r="QY3" t="n">
-        <v>3957.189596439712</v>
+        <v>3957.189596359734</v>
       </c>
       <c r="QZ3" t="n">
-        <v>4.691883537547604</v>
+        <v>4.691883729101392</v>
       </c>
       <c r="RA3" t="n">
-        <v>0.009686081316445454</v>
+        <v>0.009686081328401274</v>
       </c>
       <c r="RB3" t="n">
         <v>0</v>
       </c>
       <c r="RC3" t="n">
-        <v>0.02844531998931371</v>
+        <v>0.02844532000006398</v>
       </c>
       <c r="RD3" t="n">
-        <v>0.01481990165164862</v>
+        <v>0.01481990165265603</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.004957018979289205</v>
+        <v>0.004957018966526217</v>
       </c>
     </row>
   </sheetData>
@@ -11751,19 +11751,19 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G2" t="n">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="H2" t="n">
-        <v>1.086457690992663e-08</v>
+        <v>1.178474816344378e-07</v>
       </c>
       <c r="I2" t="n">
-        <v>4.689817979632393e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -11782,19 +11782,19 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G3" t="n">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="H3" t="n">
-        <v>1.402080404677391e-08</v>
+        <v>3.182558199749619e-09</v>
       </c>
       <c r="I3" t="n">
-        <v>1.609293832743628e-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
